--- a/Statewise GST Collection from2021 to 2026/bronze_gst_statewise_2024_25.xlsx
+++ b/Statewise GST Collection from2021 to 2026/bronze_gst_statewise_2024_25.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GSTN\Krishnan Sir\Monthly Report\Jun-25\GST Statistics Downloads 30th Jun 25\Downloads\Tax Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Bricks Project\msme-financial-risk-analytics\Statewise GST Collection from2021 to 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30B729-BF43-4362-B1FF-5B2DC22513B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7232C794-AA5A-4186-B652-2A6E9EA1D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GST_Revenue-All_India" sheetId="3" r:id="rId1"/>
-    <sheet name="Collections-Statewise" sheetId="1" r:id="rId2"/>
-    <sheet name="Refund-Statewise" sheetId="2" r:id="rId3"/>
+    <sheet name="collections_statewise_new" sheetId="4" r:id="rId2"/>
+    <sheet name="Collections-Statewise" sheetId="1" r:id="rId3"/>
+    <sheet name="Refund-Statewise" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Collections-Statewise'!$A$6:$U$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Collections-Statewise'!$A$1:$V$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Collections-Statewise'!$A$6:$U$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Collections-Statewise'!$A$1:$V$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,12 +38,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="110">
   <si>
     <t>(Rs. In Crore)</t>
   </si>
@@ -379,9 +383,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -576,7 +581,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,6 +705,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,12 +733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,6 +744,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,7 +781,7 @@
     <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1097,7 +1103,7 @@
   </sheetPr>
   <dimension ref="A1:BN24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AY51" sqref="AY51"/>
       <selection pane="topRight" activeCell="AY51" sqref="AY51"/>
@@ -1120,18 +1126,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1144,101 +1150,101 @@
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73">
         <v>45383</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="72">
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="73">
         <v>45413</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="67">
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="68">
         <v>45444</v>
       </c>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67">
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68">
         <v>45474</v>
       </c>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67">
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68">
         <v>45505</v>
       </c>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67">
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68">
         <v>45536</v>
       </c>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67">
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68">
         <v>45566</v>
       </c>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67">
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68">
         <v>45597</v>
       </c>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67">
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="68">
         <v>45627</v>
       </c>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67">
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68">
         <v>45658</v>
       </c>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67">
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68">
         <v>45689</v>
       </c>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67">
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="68"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68">
         <v>45717</v>
       </c>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="68"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -2282,23 +2288,23 @@
       <c r="A15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="67">
         <f>'Refund-Statewise'!C47</f>
         <v>33677.120000000003</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="67">
         <f>'Refund-Statewise'!D47</f>
         <v>42746.87000000001</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="67">
         <f>'Refund-Statewise'!E47</f>
         <v>56468.56</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="67">
         <f>'Refund-Statewise'!F47</f>
         <v>2912.4300000000007</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="67">
         <f>'Refund-Statewise'!G47</f>
         <v>135804.97999999998</v>
       </c>
@@ -3479,6 +3485,8764 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405333A3-4F81-43A4-8532-BBBDD0C29C26}">
+  <dimension ref="A1:BO50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="93">
+        <v>45383</v>
+      </c>
+      <c r="M1" s="93">
+        <v>45413</v>
+      </c>
+      <c r="R1" s="93">
+        <v>45444</v>
+      </c>
+      <c r="W1" s="93">
+        <v>45474</v>
+      </c>
+      <c r="AB1" s="93">
+        <v>45505</v>
+      </c>
+      <c r="AG1" s="93">
+        <v>45536</v>
+      </c>
+      <c r="AL1" s="93">
+        <v>45566</v>
+      </c>
+      <c r="AQ1" s="93">
+        <v>45597</v>
+      </c>
+      <c r="AV1" s="93">
+        <v>45627</v>
+      </c>
+      <c r="BA1" s="93">
+        <v>45658</v>
+      </c>
+      <c r="BF1" s="93">
+        <v>45689</v>
+      </c>
+      <c r="BK1" s="93">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2113.1499999999996</v>
+      </c>
+      <c r="D3">
+        <v>2991.23</v>
+      </c>
+      <c r="E3">
+        <v>1954.4799999999998</v>
+      </c>
+      <c r="F3">
+        <v>116.13999999999999</v>
+      </c>
+      <c r="G3">
+        <v>7175</v>
+      </c>
+      <c r="H3">
+        <v>269.64</v>
+      </c>
+      <c r="I3">
+        <v>362.34</v>
+      </c>
+      <c r="J3">
+        <v>149.88</v>
+      </c>
+      <c r="K3">
+        <v>7.35</v>
+      </c>
+      <c r="L3">
+        <v>789.21</v>
+      </c>
+      <c r="M3">
+        <v>153.56</v>
+      </c>
+      <c r="N3">
+        <v>224.62</v>
+      </c>
+      <c r="O3">
+        <v>135.47999999999999</v>
+      </c>
+      <c r="P3">
+        <v>11.48</v>
+      </c>
+      <c r="Q3">
+        <v>525.14</v>
+      </c>
+      <c r="R3">
+        <v>158.62</v>
+      </c>
+      <c r="S3">
+        <v>222.84</v>
+      </c>
+      <c r="T3">
+        <v>158.16</v>
+      </c>
+      <c r="U3">
+        <v>15.44</v>
+      </c>
+      <c r="V3">
+        <v>555.06000000000006</v>
+      </c>
+      <c r="W3">
+        <v>186.25</v>
+      </c>
+      <c r="X3">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>168.94</v>
+      </c>
+      <c r="Z3">
+        <v>16.89</v>
+      </c>
+      <c r="AA3">
+        <v>629.4799999999999</v>
+      </c>
+      <c r="AB3">
+        <v>150.76</v>
+      </c>
+      <c r="AC3">
+        <v>221.31</v>
+      </c>
+      <c r="AD3">
+        <v>182.59</v>
+      </c>
+      <c r="AE3">
+        <v>14.32</v>
+      </c>
+      <c r="AF3">
+        <v>568.98</v>
+      </c>
+      <c r="AG3">
+        <v>169.87</v>
+      </c>
+      <c r="AH3">
+        <v>236.18</v>
+      </c>
+      <c r="AI3">
+        <v>182.7</v>
+      </c>
+      <c r="AJ3">
+        <v>10.11</v>
+      </c>
+      <c r="AK3">
+        <v>598.86</v>
+      </c>
+      <c r="AL3">
+        <v>166.66</v>
+      </c>
+      <c r="AM3">
+        <v>240.77</v>
+      </c>
+      <c r="AN3">
+        <v>192.74</v>
+      </c>
+      <c r="AO3">
+        <v>7.67</v>
+      </c>
+      <c r="AP3">
+        <v>607.84</v>
+      </c>
+      <c r="AQ3">
+        <v>169.06</v>
+      </c>
+      <c r="AR3">
+        <v>247.16</v>
+      </c>
+      <c r="AS3">
+        <v>164.26</v>
+      </c>
+      <c r="AT3">
+        <v>5.82</v>
+      </c>
+      <c r="AU3">
+        <v>586.30000000000007</v>
+      </c>
+      <c r="AV3">
+        <v>153.41999999999999</v>
+      </c>
+      <c r="AW3">
+        <v>221.49</v>
+      </c>
+      <c r="AX3">
+        <v>167.62</v>
+      </c>
+      <c r="AY3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AZ3">
+        <v>546.83999999999992</v>
+      </c>
+      <c r="BA3">
+        <v>199.36</v>
+      </c>
+      <c r="BB3">
+        <v>290.75</v>
+      </c>
+      <c r="BC3">
+        <v>153.1</v>
+      </c>
+      <c r="BD3">
+        <v>6.63</v>
+      </c>
+      <c r="BE3">
+        <v>649.84</v>
+      </c>
+      <c r="BF3">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="BG3">
+        <v>209.81</v>
+      </c>
+      <c r="BH3">
+        <v>161.94999999999999</v>
+      </c>
+      <c r="BI3">
+        <v>7.29</v>
+      </c>
+      <c r="BJ3">
+        <v>522.53</v>
+      </c>
+      <c r="BK3">
+        <v>192.47</v>
+      </c>
+      <c r="BL3">
+        <v>256.56</v>
+      </c>
+      <c r="BM3">
+        <v>137.06</v>
+      </c>
+      <c r="BN3">
+        <v>8.83</v>
+      </c>
+      <c r="BO3">
+        <v>594.91999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1944.52</v>
+      </c>
+      <c r="D4">
+        <v>2709.3899999999994</v>
+      </c>
+      <c r="E4">
+        <v>5669.3400000000011</v>
+      </c>
+      <c r="F4">
+        <v>28.739999999999995</v>
+      </c>
+      <c r="G4">
+        <v>10351.99</v>
+      </c>
+      <c r="H4">
+        <v>219.7</v>
+      </c>
+      <c r="I4">
+        <v>302.64</v>
+      </c>
+      <c r="J4">
+        <v>491.19</v>
+      </c>
+      <c r="K4">
+        <v>1.59</v>
+      </c>
+      <c r="L4">
+        <v>1015.12</v>
+      </c>
+      <c r="M4">
+        <v>133.83000000000001</v>
+      </c>
+      <c r="N4">
+        <v>187.15</v>
+      </c>
+      <c r="O4">
+        <v>515.62</v>
+      </c>
+      <c r="P4">
+        <v>1.76</v>
+      </c>
+      <c r="Q4">
+        <v>838.36</v>
+      </c>
+      <c r="R4">
+        <v>162.13</v>
+      </c>
+      <c r="S4">
+        <v>219.28</v>
+      </c>
+      <c r="T4">
+        <v>501.16</v>
+      </c>
+      <c r="U4">
+        <v>3.03</v>
+      </c>
+      <c r="V4">
+        <v>885.59999999999991</v>
+      </c>
+      <c r="W4">
+        <v>173.13</v>
+      </c>
+      <c r="X4">
+        <v>240.16</v>
+      </c>
+      <c r="Y4">
+        <v>438.3</v>
+      </c>
+      <c r="Z4">
+        <v>2.9</v>
+      </c>
+      <c r="AA4">
+        <v>854.4899999999999</v>
+      </c>
+      <c r="AB4">
+        <v>159.25</v>
+      </c>
+      <c r="AC4">
+        <v>223.24</v>
+      </c>
+      <c r="AD4">
+        <v>442.59</v>
+      </c>
+      <c r="AE4">
+        <v>2.12</v>
+      </c>
+      <c r="AF4">
+        <v>827.19999999999993</v>
+      </c>
+      <c r="AG4">
+        <v>138.44999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>193.55</v>
+      </c>
+      <c r="AI4">
+        <v>522.38</v>
+      </c>
+      <c r="AJ4">
+        <v>1.9</v>
+      </c>
+      <c r="AK4">
+        <v>856.28</v>
+      </c>
+      <c r="AL4">
+        <v>160.52000000000001</v>
+      </c>
+      <c r="AM4">
+        <v>230.58</v>
+      </c>
+      <c r="AN4">
+        <v>473.91</v>
+      </c>
+      <c r="AO4">
+        <v>1.9</v>
+      </c>
+      <c r="AP4">
+        <v>866.91</v>
+      </c>
+      <c r="AQ4">
+        <v>166.47</v>
+      </c>
+      <c r="AR4">
+        <v>244.83</v>
+      </c>
+      <c r="AS4">
+        <v>463.05</v>
+      </c>
+      <c r="AT4">
+        <v>3.17</v>
+      </c>
+      <c r="AU4">
+        <v>877.52</v>
+      </c>
+      <c r="AV4">
+        <v>145.33000000000001</v>
+      </c>
+      <c r="AW4">
+        <v>200.51</v>
+      </c>
+      <c r="AX4">
+        <v>468</v>
+      </c>
+      <c r="AY4">
+        <v>1.78</v>
+      </c>
+      <c r="AZ4">
+        <v>815.62</v>
+      </c>
+      <c r="BA4">
+        <v>162.25</v>
+      </c>
+      <c r="BB4">
+        <v>225.02</v>
+      </c>
+      <c r="BC4">
+        <v>426.92</v>
+      </c>
+      <c r="BD4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="BE4">
+        <v>816.66000000000008</v>
+      </c>
+      <c r="BF4">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="BG4">
+        <v>217.23</v>
+      </c>
+      <c r="BH4">
+        <v>490.77</v>
+      </c>
+      <c r="BI4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="BJ4">
+        <v>868.81</v>
+      </c>
+      <c r="BK4">
+        <v>166.76</v>
+      </c>
+      <c r="BL4">
+        <v>225.2</v>
+      </c>
+      <c r="BM4">
+        <v>435.45</v>
+      </c>
+      <c r="BN4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BO4">
+        <v>829.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6494.84</v>
+      </c>
+      <c r="D5">
+        <v>9192.8799999999992</v>
+      </c>
+      <c r="E5">
+        <v>10579.109999999997</v>
+      </c>
+      <c r="F5">
+        <v>454.64</v>
+      </c>
+      <c r="G5">
+        <v>26721.47</v>
+      </c>
+      <c r="H5">
+        <v>693.2</v>
+      </c>
+      <c r="I5">
+        <v>998.58</v>
+      </c>
+      <c r="J5">
+        <v>1068.8599999999999</v>
+      </c>
+      <c r="K5">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="L5">
+        <v>2795.8</v>
+      </c>
+      <c r="M5">
+        <v>501.05</v>
+      </c>
+      <c r="N5">
+        <v>724.42</v>
+      </c>
+      <c r="O5">
+        <v>918.32</v>
+      </c>
+      <c r="P5">
+        <v>45.77</v>
+      </c>
+      <c r="Q5">
+        <v>2189.56</v>
+      </c>
+      <c r="R5">
+        <v>500.15</v>
+      </c>
+      <c r="S5">
+        <v>730.67</v>
+      </c>
+      <c r="T5">
+        <v>1022.36</v>
+      </c>
+      <c r="U5">
+        <v>53</v>
+      </c>
+      <c r="V5">
+        <v>2306.1799999999998</v>
+      </c>
+      <c r="W5">
+        <v>541.75</v>
+      </c>
+      <c r="X5">
+        <v>753.19</v>
+      </c>
+      <c r="Y5">
+        <v>726.03</v>
+      </c>
+      <c r="Z5">
+        <v>48.11</v>
+      </c>
+      <c r="AA5">
+        <v>2069.08</v>
+      </c>
+      <c r="AB5">
+        <v>484.67</v>
+      </c>
+      <c r="AC5">
+        <v>682.67</v>
+      </c>
+      <c r="AD5">
+        <v>731.98</v>
+      </c>
+      <c r="AE5">
+        <v>36.94</v>
+      </c>
+      <c r="AF5">
+        <v>1936.26</v>
+      </c>
+      <c r="AG5">
+        <v>483.72</v>
+      </c>
+      <c r="AH5">
+        <v>680.05</v>
+      </c>
+      <c r="AI5">
+        <v>734.11</v>
+      </c>
+      <c r="AJ5">
+        <v>35.36</v>
+      </c>
+      <c r="AK5">
+        <v>1933.24</v>
+      </c>
+      <c r="AL5">
+        <v>524.16999999999996</v>
+      </c>
+      <c r="AM5">
+        <v>772.5</v>
+      </c>
+      <c r="AN5">
+        <v>878.57</v>
+      </c>
+      <c r="AO5">
+        <v>36.03</v>
+      </c>
+      <c r="AP5">
+        <v>2211.2700000000004</v>
+      </c>
+      <c r="AQ5">
+        <v>539.51</v>
+      </c>
+      <c r="AR5">
+        <v>787.29</v>
+      </c>
+      <c r="AS5">
+        <v>964.82</v>
+      </c>
+      <c r="AT5">
+        <v>35.56</v>
+      </c>
+      <c r="AU5">
+        <v>2327.1799999999998</v>
+      </c>
+      <c r="AV5">
+        <v>537.38</v>
+      </c>
+      <c r="AW5">
+        <v>728.01</v>
+      </c>
+      <c r="AX5">
+        <v>1001.9</v>
+      </c>
+      <c r="AY5">
+        <v>26.32</v>
+      </c>
+      <c r="AZ5">
+        <v>2293.61</v>
+      </c>
+      <c r="BA5">
+        <v>592.86</v>
+      </c>
+      <c r="BB5">
+        <v>820.49</v>
+      </c>
+      <c r="BC5">
+        <v>914.75</v>
+      </c>
+      <c r="BD5">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="BE5">
+        <v>2362.65</v>
+      </c>
+      <c r="BF5">
+        <v>534.53</v>
+      </c>
+      <c r="BG5">
+        <v>762.61</v>
+      </c>
+      <c r="BH5">
+        <v>798.13</v>
+      </c>
+      <c r="BI5">
+        <v>29.63</v>
+      </c>
+      <c r="BJ5">
+        <v>2124.9</v>
+      </c>
+      <c r="BK5">
+        <v>561.85</v>
+      </c>
+      <c r="BL5">
+        <v>752.4</v>
+      </c>
+      <c r="BM5">
+        <v>819.28</v>
+      </c>
+      <c r="BN5">
+        <v>38.21</v>
+      </c>
+      <c r="BO5">
+        <v>2171.7399999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>582.41</v>
+      </c>
+      <c r="D6">
+        <v>777.18</v>
+      </c>
+      <c r="E6">
+        <v>1509.86</v>
+      </c>
+      <c r="F6">
+        <v>45.67</v>
+      </c>
+      <c r="G6">
+        <v>2915.12</v>
+      </c>
+      <c r="H6">
+        <v>54.82</v>
+      </c>
+      <c r="I6">
+        <v>75.48</v>
+      </c>
+      <c r="J6">
+        <v>178.47</v>
+      </c>
+      <c r="K6">
+        <v>4.26</v>
+      </c>
+      <c r="L6">
+        <v>313.02999999999997</v>
+      </c>
+      <c r="M6">
+        <v>41.51</v>
+      </c>
+      <c r="N6">
+        <v>54.22</v>
+      </c>
+      <c r="O6">
+        <v>138.1</v>
+      </c>
+      <c r="P6">
+        <v>3.32</v>
+      </c>
+      <c r="Q6">
+        <v>237.14999999999998</v>
+      </c>
+      <c r="R6">
+        <v>44.56</v>
+      </c>
+      <c r="S6">
+        <v>59.64</v>
+      </c>
+      <c r="T6">
+        <v>115.93</v>
+      </c>
+      <c r="U6">
+        <v>3.38</v>
+      </c>
+      <c r="V6">
+        <v>223.51</v>
+      </c>
+      <c r="W6">
+        <v>45.25</v>
+      </c>
+      <c r="X6">
+        <v>62.84</v>
+      </c>
+      <c r="Y6">
+        <v>124.37</v>
+      </c>
+      <c r="Z6">
+        <v>0.91</v>
+      </c>
+      <c r="AA6">
+        <v>233.37</v>
+      </c>
+      <c r="AB6">
+        <v>49.85</v>
+      </c>
+      <c r="AC6">
+        <v>63.85</v>
+      </c>
+      <c r="AD6">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>1.37</v>
+      </c>
+      <c r="AF6">
+        <v>243.76999999999998</v>
+      </c>
+      <c r="AG6">
+        <v>41.16</v>
+      </c>
+      <c r="AH6">
+        <v>53.42</v>
+      </c>
+      <c r="AI6">
+        <v>99.8</v>
+      </c>
+      <c r="AJ6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AK6">
+        <v>196.7</v>
+      </c>
+      <c r="AL6">
+        <v>46.33</v>
+      </c>
+      <c r="AM6">
+        <v>59.18</v>
+      </c>
+      <c r="AN6">
+        <v>136.66</v>
+      </c>
+      <c r="AO6">
+        <v>1.2</v>
+      </c>
+      <c r="AP6">
+        <v>243.36999999999998</v>
+      </c>
+      <c r="AQ6">
+        <v>52.26</v>
+      </c>
+      <c r="AR6">
+        <v>73.14</v>
+      </c>
+      <c r="AS6">
+        <v>121.26</v>
+      </c>
+      <c r="AT6">
+        <v>6.12</v>
+      </c>
+      <c r="AU6">
+        <v>252.78000000000003</v>
+      </c>
+      <c r="AV6">
+        <v>49.32</v>
+      </c>
+      <c r="AW6">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="AX6">
+        <v>103.17</v>
+      </c>
+      <c r="AY6">
+        <v>6.06</v>
+      </c>
+      <c r="AZ6">
+        <v>224.14999999999998</v>
+      </c>
+      <c r="BA6">
+        <v>58</v>
+      </c>
+      <c r="BB6">
+        <v>81.86</v>
+      </c>
+      <c r="BC6">
+        <v>122.62</v>
+      </c>
+      <c r="BD6">
+        <v>8.56</v>
+      </c>
+      <c r="BE6">
+        <v>271.04000000000002</v>
+      </c>
+      <c r="BF6">
+        <v>47.59</v>
+      </c>
+      <c r="BG6">
+        <v>60.66</v>
+      </c>
+      <c r="BH6">
+        <v>122.2</v>
+      </c>
+      <c r="BI6">
+        <v>5.25</v>
+      </c>
+      <c r="BJ6">
+        <v>235.7</v>
+      </c>
+      <c r="BK6">
+        <v>51.76</v>
+      </c>
+      <c r="BL6">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="BM6">
+        <v>118.58</v>
+      </c>
+      <c r="BN6">
+        <v>2.92</v>
+      </c>
+      <c r="BO6">
+        <v>240.54999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>4046.2799999999997</v>
+      </c>
+      <c r="D7">
+        <v>5847.380000000001</v>
+      </c>
+      <c r="E7">
+        <v>10647.85</v>
+      </c>
+      <c r="F7">
+        <v>128.82999999999998</v>
+      </c>
+      <c r="G7">
+        <v>20670.339999999997</v>
+      </c>
+      <c r="H7">
+        <v>460.53</v>
+      </c>
+      <c r="I7">
+        <v>636.26</v>
+      </c>
+      <c r="J7">
+        <v>1132.22</v>
+      </c>
+      <c r="K7">
+        <v>10.02</v>
+      </c>
+      <c r="L7">
+        <v>2239.0300000000002</v>
+      </c>
+      <c r="M7">
+        <v>322.98</v>
+      </c>
+      <c r="N7">
+        <v>475.89</v>
+      </c>
+      <c r="O7">
+        <v>1025.25</v>
+      </c>
+      <c r="P7">
+        <v>12.62</v>
+      </c>
+      <c r="Q7">
+        <v>1836.7399999999998</v>
+      </c>
+      <c r="R7">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="S7">
+        <v>472.33</v>
+      </c>
+      <c r="T7">
+        <v>897.87</v>
+      </c>
+      <c r="U7">
+        <v>11.7</v>
+      </c>
+      <c r="V7">
+        <v>1705.05</v>
+      </c>
+      <c r="W7">
+        <v>342.54</v>
+      </c>
+      <c r="X7">
+        <v>490.49</v>
+      </c>
+      <c r="Y7">
+        <v>854.05</v>
+      </c>
+      <c r="Z7">
+        <v>12.62</v>
+      </c>
+      <c r="AA7">
+        <v>1699.6999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>432.22</v>
+      </c>
+      <c r="AD7">
+        <v>617.77</v>
+      </c>
+      <c r="AE7">
+        <v>9.09</v>
+      </c>
+      <c r="AF7">
+        <v>1350.7299999999998</v>
+      </c>
+      <c r="AG7">
+        <v>273.5</v>
+      </c>
+      <c r="AH7">
+        <v>399.73</v>
+      </c>
+      <c r="AI7">
+        <v>900.05</v>
+      </c>
+      <c r="AJ7">
+        <v>8.48</v>
+      </c>
+      <c r="AK7">
+        <v>1581.76</v>
+      </c>
+      <c r="AL7">
+        <v>343.01</v>
+      </c>
+      <c r="AM7">
+        <v>485.96</v>
+      </c>
+      <c r="AN7">
+        <v>995.35</v>
+      </c>
+      <c r="AO7">
+        <v>9.42</v>
+      </c>
+      <c r="AP7">
+        <v>1833.7400000000002</v>
+      </c>
+      <c r="AQ7">
+        <v>337.15</v>
+      </c>
+      <c r="AR7">
+        <v>521.66999999999996</v>
+      </c>
+      <c r="AS7">
+        <v>951.34</v>
+      </c>
+      <c r="AT7">
+        <v>13.44</v>
+      </c>
+      <c r="AU7">
+        <v>1823.6</v>
+      </c>
+      <c r="AV7">
+        <v>295.68</v>
+      </c>
+      <c r="AW7">
+        <v>439.24</v>
+      </c>
+      <c r="AX7">
+        <v>803.69</v>
+      </c>
+      <c r="AY7">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AZ7">
+        <v>1547.39</v>
+      </c>
+      <c r="BA7">
+        <v>343.2</v>
+      </c>
+      <c r="BB7">
+        <v>493.63</v>
+      </c>
+      <c r="BC7">
+        <v>807.55</v>
+      </c>
+      <c r="BD7">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="BE7">
+        <v>1654.59</v>
+      </c>
+      <c r="BF7">
+        <v>330.65</v>
+      </c>
+      <c r="BG7">
+        <v>473.15</v>
+      </c>
+      <c r="BH7">
+        <v>839.7</v>
+      </c>
+      <c r="BI7">
+        <v>12.19</v>
+      </c>
+      <c r="BJ7">
+        <v>1655.69</v>
+      </c>
+      <c r="BK7">
+        <v>382.24</v>
+      </c>
+      <c r="BL7">
+        <v>526.80999999999995</v>
+      </c>
+      <c r="BM7">
+        <v>823.01</v>
+      </c>
+      <c r="BN7">
+        <v>10.26</v>
+      </c>
+      <c r="BO7">
+        <v>1742.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>18165.18</v>
+      </c>
+      <c r="D8">
+        <v>23285.050000000003</v>
+      </c>
+      <c r="E8">
+        <v>70034.48</v>
+      </c>
+      <c r="F8">
+        <v>7877.5300000000007</v>
+      </c>
+      <c r="G8">
+        <v>119362.23999999999</v>
+      </c>
+      <c r="H8">
+        <v>1659.64</v>
+      </c>
+      <c r="I8">
+        <v>2172.14</v>
+      </c>
+      <c r="J8">
+        <v>7725.38</v>
+      </c>
+      <c r="K8">
+        <v>610.51</v>
+      </c>
+      <c r="L8">
+        <v>12167.67</v>
+      </c>
+      <c r="M8">
+        <v>1518.57</v>
+      </c>
+      <c r="N8">
+        <v>1949.86</v>
+      </c>
+      <c r="O8">
+        <v>5208.96</v>
+      </c>
+      <c r="P8">
+        <v>611.29</v>
+      </c>
+      <c r="Q8">
+        <v>9288.68</v>
+      </c>
+      <c r="R8">
+        <v>1528.78</v>
+      </c>
+      <c r="S8">
+        <v>1936.68</v>
+      </c>
+      <c r="T8">
+        <v>4977.62</v>
+      </c>
+      <c r="U8">
+        <v>595.22</v>
+      </c>
+      <c r="V8">
+        <v>9038.2999999999993</v>
+      </c>
+      <c r="W8">
+        <v>1363.99</v>
+      </c>
+      <c r="X8">
+        <v>1819.54</v>
+      </c>
+      <c r="Y8">
+        <v>5286.48</v>
+      </c>
+      <c r="Z8">
+        <v>611.71</v>
+      </c>
+      <c r="AA8">
+        <v>9081.7199999999975</v>
+      </c>
+      <c r="AB8">
+        <v>1400.61</v>
+      </c>
+      <c r="AC8">
+        <v>1785.59</v>
+      </c>
+      <c r="AD8">
+        <v>4770.3100000000004</v>
+      </c>
+      <c r="AE8">
+        <v>666.48</v>
+      </c>
+      <c r="AF8">
+        <v>8622.99</v>
+      </c>
+      <c r="AG8">
+        <v>1438.42</v>
+      </c>
+      <c r="AH8">
+        <v>1852.35</v>
+      </c>
+      <c r="AI8">
+        <v>5972.72</v>
+      </c>
+      <c r="AJ8">
+        <v>693.87</v>
+      </c>
+      <c r="AK8">
+        <v>9957.36</v>
+      </c>
+      <c r="AL8">
+        <v>1536.29</v>
+      </c>
+      <c r="AM8">
+        <v>1956.07</v>
+      </c>
+      <c r="AN8">
+        <v>5864.27</v>
+      </c>
+      <c r="AO8">
+        <v>688.19</v>
+      </c>
+      <c r="AP8">
+        <v>10044.820000000002</v>
+      </c>
+      <c r="AQ8">
+        <v>1512.02</v>
+      </c>
+      <c r="AR8">
+        <v>1995.5</v>
+      </c>
+      <c r="AS8">
+        <v>5592.06</v>
+      </c>
+      <c r="AT8">
+        <v>800.65</v>
+      </c>
+      <c r="AU8">
+        <v>9900.23</v>
+      </c>
+      <c r="AV8">
+        <v>1469.32</v>
+      </c>
+      <c r="AW8">
+        <v>1810.99</v>
+      </c>
+      <c r="AX8">
+        <v>6495.48</v>
+      </c>
+      <c r="AY8">
+        <v>627.6</v>
+      </c>
+      <c r="AZ8">
+        <v>10403.39</v>
+      </c>
+      <c r="BA8">
+        <v>1596.53</v>
+      </c>
+      <c r="BB8">
+        <v>2074.4699999999998</v>
+      </c>
+      <c r="BC8">
+        <v>5899.77</v>
+      </c>
+      <c r="BD8">
+        <v>713.05</v>
+      </c>
+      <c r="BE8">
+        <v>10283.82</v>
+      </c>
+      <c r="BF8">
+        <v>1508.54</v>
+      </c>
+      <c r="BG8">
+        <v>1921.14</v>
+      </c>
+      <c r="BH8">
+        <v>5833.46</v>
+      </c>
+      <c r="BI8">
+        <v>662.1</v>
+      </c>
+      <c r="BJ8">
+        <v>9925.24</v>
+      </c>
+      <c r="BK8">
+        <v>1632.47</v>
+      </c>
+      <c r="BL8">
+        <v>2010.72</v>
+      </c>
+      <c r="BM8">
+        <v>6407.97</v>
+      </c>
+      <c r="BN8">
+        <v>596.86</v>
+      </c>
+      <c r="BO8">
+        <v>10648.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>15156.31</v>
+      </c>
+      <c r="D9">
+        <v>17788.150000000001</v>
+      </c>
+      <c r="E9">
+        <v>42705.71</v>
+      </c>
+      <c r="F9">
+        <v>1352.1699999999998</v>
+      </c>
+      <c r="G9">
+        <v>77002.340000000011</v>
+      </c>
+      <c r="H9">
+        <v>1740.46</v>
+      </c>
+      <c r="I9">
+        <v>2026.77</v>
+      </c>
+      <c r="J9">
+        <v>3889.72</v>
+      </c>
+      <c r="K9">
+        <v>114.71</v>
+      </c>
+      <c r="L9">
+        <v>7771.66</v>
+      </c>
+      <c r="M9">
+        <v>1286.6400000000001</v>
+      </c>
+      <c r="N9">
+        <v>1476.93</v>
+      </c>
+      <c r="O9">
+        <v>4630.3</v>
+      </c>
+      <c r="P9">
+        <v>117.64</v>
+      </c>
+      <c r="Q9">
+        <v>7511.5100000000011</v>
+      </c>
+      <c r="R9">
+        <v>1060.7</v>
+      </c>
+      <c r="S9">
+        <v>1257.03</v>
+      </c>
+      <c r="T9">
+        <v>2857.88</v>
+      </c>
+      <c r="U9">
+        <v>113.78</v>
+      </c>
+      <c r="V9">
+        <v>5289.39</v>
+      </c>
+      <c r="W9">
+        <v>1106.8800000000001</v>
+      </c>
+      <c r="X9">
+        <v>1285.1600000000001</v>
+      </c>
+      <c r="Y9">
+        <v>3457.07</v>
+      </c>
+      <c r="Z9">
+        <v>114.87</v>
+      </c>
+      <c r="AA9">
+        <v>5963.9800000000005</v>
+      </c>
+      <c r="AB9">
+        <v>1107</v>
+      </c>
+      <c r="AC9">
+        <v>1296.18</v>
+      </c>
+      <c r="AD9">
+        <v>3118.28</v>
+      </c>
+      <c r="AE9">
+        <v>113.06</v>
+      </c>
+      <c r="AF9">
+        <v>5634.5200000000013</v>
+      </c>
+      <c r="AG9">
+        <v>1165.7</v>
+      </c>
+      <c r="AH9">
+        <v>1334.27</v>
+      </c>
+      <c r="AI9">
+        <v>3217.56</v>
+      </c>
+      <c r="AJ9">
+        <v>120.86</v>
+      </c>
+      <c r="AK9">
+        <v>5838.39</v>
+      </c>
+      <c r="AL9">
+        <v>1521.51</v>
+      </c>
+      <c r="AM9">
+        <v>1738.92</v>
+      </c>
+      <c r="AN9">
+        <v>5278.16</v>
+      </c>
+      <c r="AO9">
+        <v>121.03</v>
+      </c>
+      <c r="AP9">
+        <v>8659.6200000000008</v>
+      </c>
+      <c r="AQ9">
+        <v>1187.31</v>
+      </c>
+      <c r="AR9">
+        <v>1432.1</v>
+      </c>
+      <c r="AS9">
+        <v>3565.01</v>
+      </c>
+      <c r="AT9">
+        <v>126.26</v>
+      </c>
+      <c r="AU9">
+        <v>6310.68</v>
+      </c>
+      <c r="AV9">
+        <v>1158.23</v>
+      </c>
+      <c r="AW9">
+        <v>1352.77</v>
+      </c>
+      <c r="AX9">
+        <v>2989.91</v>
+      </c>
+      <c r="AY9">
+        <v>92.36</v>
+      </c>
+      <c r="AZ9">
+        <v>5593.2699999999995</v>
+      </c>
+      <c r="BA9">
+        <v>1299.71</v>
+      </c>
+      <c r="BB9">
+        <v>1592.39</v>
+      </c>
+      <c r="BC9">
+        <v>3204.09</v>
+      </c>
+      <c r="BD9">
+        <v>119.59</v>
+      </c>
+      <c r="BE9">
+        <v>6215.7800000000007</v>
+      </c>
+      <c r="BF9">
+        <v>1233.81</v>
+      </c>
+      <c r="BG9">
+        <v>1454.51</v>
+      </c>
+      <c r="BH9">
+        <v>3285.79</v>
+      </c>
+      <c r="BI9">
+        <v>100.19</v>
+      </c>
+      <c r="BJ9">
+        <v>6074.2999999999993</v>
+      </c>
+      <c r="BK9">
+        <v>1288.3599999999999</v>
+      </c>
+      <c r="BL9">
+        <v>1541.12</v>
+      </c>
+      <c r="BM9">
+        <v>3211.94</v>
+      </c>
+      <c r="BN9">
+        <v>97.82</v>
+      </c>
+      <c r="BO9">
+        <v>6139.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>14638.57</v>
+      </c>
+      <c r="D10">
+        <v>18736.43</v>
+      </c>
+      <c r="E10">
+        <v>19377.289999999997</v>
+      </c>
+      <c r="F10">
+        <v>2032.3799999999999</v>
+      </c>
+      <c r="G10">
+        <v>54784.670000000006</v>
+      </c>
+      <c r="H10">
+        <v>1600.9</v>
+      </c>
+      <c r="I10">
+        <v>1889.1</v>
+      </c>
+      <c r="J10">
+        <v>1890.19</v>
+      </c>
+      <c r="K10">
+        <v>177.82</v>
+      </c>
+      <c r="L10">
+        <v>5558.01</v>
+      </c>
+      <c r="M10">
+        <v>1198.5899999999999</v>
+      </c>
+      <c r="N10">
+        <v>1505.61</v>
+      </c>
+      <c r="O10">
+        <v>1572.9</v>
+      </c>
+      <c r="P10">
+        <v>137.18</v>
+      </c>
+      <c r="Q10">
+        <v>4414.2800000000007</v>
+      </c>
+      <c r="R10">
+        <v>1139.8800000000001</v>
+      </c>
+      <c r="S10">
+        <v>1458.24</v>
+      </c>
+      <c r="T10">
+        <v>1527.78</v>
+      </c>
+      <c r="U10">
+        <v>128.18</v>
+      </c>
+      <c r="V10">
+        <v>4254.08</v>
+      </c>
+      <c r="W10">
+        <v>1119.78</v>
+      </c>
+      <c r="X10">
+        <v>1436.33</v>
+      </c>
+      <c r="Y10">
+        <v>1665.18</v>
+      </c>
+      <c r="Z10">
+        <v>147.47999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>4368.7699999999995</v>
+      </c>
+      <c r="AB10">
+        <v>990.13</v>
+      </c>
+      <c r="AC10">
+        <v>1279.8</v>
+      </c>
+      <c r="AD10">
+        <v>1429.13</v>
+      </c>
+      <c r="AE10">
+        <v>121.31</v>
+      </c>
+      <c r="AF10">
+        <v>3820.37</v>
+      </c>
+      <c r="AG10">
+        <v>1042.8399999999999</v>
+      </c>
+      <c r="AH10">
+        <v>1343.79</v>
+      </c>
+      <c r="AI10">
+        <v>1419.14</v>
+      </c>
+      <c r="AJ10">
+        <v>123.22</v>
+      </c>
+      <c r="AK10">
+        <v>3928.9900000000002</v>
+      </c>
+      <c r="AL10">
+        <v>1175.25</v>
+      </c>
+      <c r="AM10">
+        <v>1504.72</v>
+      </c>
+      <c r="AN10">
+        <v>1585.8</v>
+      </c>
+      <c r="AO10">
+        <v>203.04</v>
+      </c>
+      <c r="AP10">
+        <v>4468.8100000000004</v>
+      </c>
+      <c r="AQ10">
+        <v>1219.69</v>
+      </c>
+      <c r="AR10">
+        <v>1599.86</v>
+      </c>
+      <c r="AS10">
+        <v>1592.32</v>
+      </c>
+      <c r="AT10">
+        <v>210.36</v>
+      </c>
+      <c r="AU10">
+        <v>4622.2299999999996</v>
+      </c>
+      <c r="AV10">
+        <v>1134.0999999999999</v>
+      </c>
+      <c r="AW10">
+        <v>1419.19</v>
+      </c>
+      <c r="AX10">
+        <v>1418.32</v>
+      </c>
+      <c r="AY10">
+        <v>174.87</v>
+      </c>
+      <c r="AZ10">
+        <v>4146.4799999999996</v>
+      </c>
+      <c r="BA10">
+        <v>1313.28</v>
+      </c>
+      <c r="BB10">
+        <v>1631.59</v>
+      </c>
+      <c r="BC10">
+        <v>1777.7</v>
+      </c>
+      <c r="BD10">
+        <v>195.02</v>
+      </c>
+      <c r="BE10">
+        <v>4917.59</v>
+      </c>
+      <c r="BF10">
+        <v>1284.3</v>
+      </c>
+      <c r="BG10">
+        <v>1619.47</v>
+      </c>
+      <c r="BH10">
+        <v>1671.1</v>
+      </c>
+      <c r="BI10">
+        <v>211.89</v>
+      </c>
+      <c r="BJ10">
+        <v>4786.76</v>
+      </c>
+      <c r="BK10">
+        <v>1419.83</v>
+      </c>
+      <c r="BL10">
+        <v>2048.73</v>
+      </c>
+      <c r="BM10">
+        <v>1827.73</v>
+      </c>
+      <c r="BN10">
+        <v>202.01</v>
+      </c>
+      <c r="BO10">
+        <v>5498.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>26327.85</v>
+      </c>
+      <c r="D11">
+        <v>34845.230000000003</v>
+      </c>
+      <c r="E11">
+        <v>34461.750000000007</v>
+      </c>
+      <c r="F11">
+        <v>16577.400000000001</v>
+      </c>
+      <c r="G11">
+        <v>112212.23000000001</v>
+      </c>
+      <c r="H11">
+        <v>3202.68</v>
+      </c>
+      <c r="I11">
+        <v>4120.71</v>
+      </c>
+      <c r="J11">
+        <v>3606.43</v>
+      </c>
+      <c r="K11">
+        <v>1360.3</v>
+      </c>
+      <c r="L11">
+        <v>12290.119999999999</v>
+      </c>
+      <c r="M11">
+        <v>2020.29</v>
+      </c>
+      <c r="N11">
+        <v>2735.6</v>
+      </c>
+      <c r="O11">
+        <v>3056.26</v>
+      </c>
+      <c r="P11">
+        <v>1279.33</v>
+      </c>
+      <c r="Q11">
+        <v>9091.48</v>
+      </c>
+      <c r="R11">
+        <v>2202.4699999999998</v>
+      </c>
+      <c r="S11">
+        <v>2906.73</v>
+      </c>
+      <c r="T11">
+        <v>3008.16</v>
+      </c>
+      <c r="U11">
+        <v>1483.76</v>
+      </c>
+      <c r="V11">
+        <v>9601.119999999999</v>
+      </c>
+      <c r="W11">
+        <v>2139.65</v>
+      </c>
+      <c r="X11">
+        <v>2811.37</v>
+      </c>
+      <c r="Y11">
+        <v>2782.45</v>
+      </c>
+      <c r="Z11">
+        <v>1391.55</v>
+      </c>
+      <c r="AA11">
+        <v>9125.02</v>
+      </c>
+      <c r="AB11">
+        <v>1969.36</v>
+      </c>
+      <c r="AC11">
+        <v>2571.77</v>
+      </c>
+      <c r="AD11">
+        <v>2424.5100000000002</v>
+      </c>
+      <c r="AE11">
+        <v>1303.83</v>
+      </c>
+      <c r="AF11">
+        <v>8269.4700000000012</v>
+      </c>
+      <c r="AG11">
+        <v>1944.85</v>
+      </c>
+      <c r="AH11">
+        <v>2527.96</v>
+      </c>
+      <c r="AI11">
+        <v>2392.89</v>
+      </c>
+      <c r="AJ11">
+        <v>1191.1199999999999</v>
+      </c>
+      <c r="AK11">
+        <v>8056.8199999999988</v>
+      </c>
+      <c r="AL11">
+        <v>2136.61</v>
+      </c>
+      <c r="AM11">
+        <v>2834.2</v>
+      </c>
+      <c r="AN11">
+        <v>3257.72</v>
+      </c>
+      <c r="AO11">
+        <v>1373.48</v>
+      </c>
+      <c r="AP11">
+        <v>9602.0099999999984</v>
+      </c>
+      <c r="AQ11">
+        <v>2072.73</v>
+      </c>
+      <c r="AR11">
+        <v>2867.65</v>
+      </c>
+      <c r="AS11">
+        <v>3056.22</v>
+      </c>
+      <c r="AT11">
+        <v>1435.24</v>
+      </c>
+      <c r="AU11">
+        <v>9431.84</v>
+      </c>
+      <c r="AV11">
+        <v>1881.8</v>
+      </c>
+      <c r="AW11">
+        <v>2535.19</v>
+      </c>
+      <c r="AX11">
+        <v>2340.5</v>
+      </c>
+      <c r="AY11">
+        <v>1359.5</v>
+      </c>
+      <c r="AZ11">
+        <v>8116.99</v>
+      </c>
+      <c r="BA11">
+        <v>2221.64</v>
+      </c>
+      <c r="BB11">
+        <v>2995.11</v>
+      </c>
+      <c r="BC11">
+        <v>2792.88</v>
+      </c>
+      <c r="BD11">
+        <v>1505.94</v>
+      </c>
+      <c r="BE11">
+        <v>9515.57</v>
+      </c>
+      <c r="BF11">
+        <v>2081.0700000000002</v>
+      </c>
+      <c r="BG11">
+        <v>2731.75</v>
+      </c>
+      <c r="BH11">
+        <v>2612.1999999999998</v>
+      </c>
+      <c r="BI11">
+        <v>1730.45</v>
+      </c>
+      <c r="BJ11">
+        <v>9155.4699999999993</v>
+      </c>
+      <c r="BK11">
+        <v>2454.6999999999998</v>
+      </c>
+      <c r="BL11">
+        <v>3207.19</v>
+      </c>
+      <c r="BM11">
+        <v>3131.53</v>
+      </c>
+      <c r="BN11">
+        <v>1162.9000000000001</v>
+      </c>
+      <c r="BO11">
+        <v>9956.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>5430.65</v>
+      </c>
+      <c r="D12">
+        <v>9924.5</v>
+      </c>
+      <c r="E12">
+        <v>2774.27</v>
+      </c>
+      <c r="F12">
+        <v>2078.4400000000005</v>
+      </c>
+      <c r="G12">
+        <v>20207.86</v>
+      </c>
+      <c r="H12">
+        <v>616.45000000000005</v>
+      </c>
+      <c r="I12">
+        <v>950.72</v>
+      </c>
+      <c r="J12">
+        <v>253.01</v>
+      </c>
+      <c r="K12">
+        <v>171.6</v>
+      </c>
+      <c r="L12">
+        <v>1991.78</v>
+      </c>
+      <c r="M12">
+        <v>425.19</v>
+      </c>
+      <c r="N12">
+        <v>694.56</v>
+      </c>
+      <c r="O12">
+        <v>210.87</v>
+      </c>
+      <c r="P12">
+        <v>190.55</v>
+      </c>
+      <c r="Q12">
+        <v>1521.1699999999998</v>
+      </c>
+      <c r="R12">
+        <v>416.93</v>
+      </c>
+      <c r="S12">
+        <v>687.97</v>
+      </c>
+      <c r="T12">
+        <v>234.5</v>
+      </c>
+      <c r="U12">
+        <v>185.57</v>
+      </c>
+      <c r="V12">
+        <v>1524.97</v>
+      </c>
+      <c r="W12">
+        <v>430.73</v>
+      </c>
+      <c r="X12">
+        <v>739.27</v>
+      </c>
+      <c r="Y12">
+        <v>213.12</v>
+      </c>
+      <c r="Z12">
+        <v>185.49</v>
+      </c>
+      <c r="AA12">
+        <v>1568.61</v>
+      </c>
+      <c r="AB12">
+        <v>426.54</v>
+      </c>
+      <c r="AC12">
+        <v>695.26</v>
+      </c>
+      <c r="AD12">
+        <v>220.04</v>
+      </c>
+      <c r="AE12">
+        <v>149.58000000000001</v>
+      </c>
+      <c r="AF12">
+        <v>1491.4199999999998</v>
+      </c>
+      <c r="AG12">
+        <v>417.22</v>
+      </c>
+      <c r="AH12">
+        <v>659.53</v>
+      </c>
+      <c r="AI12">
+        <v>244.41</v>
+      </c>
+      <c r="AJ12">
+        <v>175.62</v>
+      </c>
+      <c r="AK12">
+        <v>1496.7800000000002</v>
+      </c>
+      <c r="AL12">
+        <v>445.54</v>
+      </c>
+      <c r="AM12">
+        <v>725.19</v>
+      </c>
+      <c r="AN12">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="AO12">
+        <v>177.2</v>
+      </c>
+      <c r="AP12">
+        <v>1604.3300000000002</v>
+      </c>
+      <c r="AQ12">
+        <v>417.05</v>
+      </c>
+      <c r="AR12">
+        <v>760.37</v>
+      </c>
+      <c r="AS12">
+        <v>214.44</v>
+      </c>
+      <c r="AT12">
+        <v>168.65</v>
+      </c>
+      <c r="AU12">
+        <v>1560.5100000000002</v>
+      </c>
+      <c r="AV12">
+        <v>407.54</v>
+      </c>
+      <c r="AW12">
+        <v>768.34</v>
+      </c>
+      <c r="AX12">
+        <v>193.66</v>
+      </c>
+      <c r="AY12">
+        <v>151.43</v>
+      </c>
+      <c r="AZ12">
+        <v>1520.9700000000003</v>
+      </c>
+      <c r="BA12">
+        <v>422.33</v>
+      </c>
+      <c r="BB12">
+        <v>866.25</v>
+      </c>
+      <c r="BC12">
+        <v>229.57</v>
+      </c>
+      <c r="BD12">
+        <v>166.21</v>
+      </c>
+      <c r="BE12">
+        <v>1684.36</v>
+      </c>
+      <c r="BF12">
+        <v>398.73</v>
+      </c>
+      <c r="BG12">
+        <v>802.67</v>
+      </c>
+      <c r="BH12">
+        <v>256.37</v>
+      </c>
+      <c r="BI12">
+        <v>186.55</v>
+      </c>
+      <c r="BJ12">
+        <v>1644.32</v>
+      </c>
+      <c r="BK12">
+        <v>606.4</v>
+      </c>
+      <c r="BL12">
+        <v>1574.37</v>
+      </c>
+      <c r="BM12">
+        <v>247.88</v>
+      </c>
+      <c r="BN12">
+        <v>169.99</v>
+      </c>
+      <c r="BO12">
+        <v>2598.6400000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>306.72000000000003</v>
+      </c>
+      <c r="D13">
+        <v>399.1</v>
+      </c>
+      <c r="E13">
+        <v>3355.7599999999998</v>
+      </c>
+      <c r="F13">
+        <v>1.52</v>
+      </c>
+      <c r="G13">
+        <v>4063.1</v>
+      </c>
+      <c r="H13">
+        <v>46.69</v>
+      </c>
+      <c r="I13">
+        <v>69.2</v>
+      </c>
+      <c r="J13">
+        <v>287.54000000000002</v>
+      </c>
+      <c r="K13">
+        <v>0.05</v>
+      </c>
+      <c r="L13">
+        <v>403.48</v>
+      </c>
+      <c r="M13">
+        <v>20.94</v>
+      </c>
+      <c r="N13">
+        <v>25.95</v>
+      </c>
+      <c r="O13">
+        <v>264.61</v>
+      </c>
+      <c r="P13">
+        <v>0.33</v>
+      </c>
+      <c r="Q13">
+        <v>311.83</v>
+      </c>
+      <c r="R13">
+        <v>20.68</v>
+      </c>
+      <c r="S13">
+        <v>25.73</v>
+      </c>
+      <c r="T13">
+        <v>271.16000000000003</v>
+      </c>
+      <c r="U13">
+        <v>0.02</v>
+      </c>
+      <c r="V13">
+        <v>317.59000000000003</v>
+      </c>
+      <c r="W13">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="X13">
+        <v>25.4</v>
+      </c>
+      <c r="Y13">
+        <v>280.16000000000003</v>
+      </c>
+      <c r="Z13">
+        <v>0.11</v>
+      </c>
+      <c r="AA13">
+        <v>325.00000000000006</v>
+      </c>
+      <c r="AB13">
+        <v>14.2</v>
+      </c>
+      <c r="AC13">
+        <v>18.46</v>
+      </c>
+      <c r="AD13">
+        <v>292.98</v>
+      </c>
+      <c r="AE13">
+        <v>0.11</v>
+      </c>
+      <c r="AF13">
+        <v>325.75</v>
+      </c>
+      <c r="AG13">
+        <v>18.45</v>
+      </c>
+      <c r="AH13">
+        <v>22.24</v>
+      </c>
+      <c r="AI13">
+        <v>283.01</v>
+      </c>
+      <c r="AJ13">
+        <v>0.03</v>
+      </c>
+      <c r="AK13">
+        <v>323.72999999999996</v>
+      </c>
+      <c r="AL13">
+        <v>23.52</v>
+      </c>
+      <c r="AM13">
+        <v>30.22</v>
+      </c>
+      <c r="AN13">
+        <v>279.05</v>
+      </c>
+      <c r="AO13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP13">
+        <v>332.86</v>
+      </c>
+      <c r="AQ13">
+        <v>37.51</v>
+      </c>
+      <c r="AR13">
+        <v>47.22</v>
+      </c>
+      <c r="AS13">
+        <v>270.70999999999998</v>
+      </c>
+      <c r="AT13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AU13">
+        <v>355.50999999999993</v>
+      </c>
+      <c r="AV13">
+        <v>29.21</v>
+      </c>
+      <c r="AW13">
+        <v>37.79</v>
+      </c>
+      <c r="AX13">
+        <v>262.37</v>
+      </c>
+      <c r="AY13">
+        <v>0.12</v>
+      </c>
+      <c r="AZ13">
+        <v>329.49</v>
+      </c>
+      <c r="BA13">
+        <v>27.16</v>
+      </c>
+      <c r="BB13">
+        <v>36.58</v>
+      </c>
+      <c r="BC13">
+        <v>292.89</v>
+      </c>
+      <c r="BD13">
+        <v>0.13</v>
+      </c>
+      <c r="BE13">
+        <v>356.76</v>
+      </c>
+      <c r="BF13">
+        <v>22.42</v>
+      </c>
+      <c r="BG13">
+        <v>27.15</v>
+      </c>
+      <c r="BH13">
+        <v>281.93</v>
+      </c>
+      <c r="BI13">
+        <v>0.19</v>
+      </c>
+      <c r="BJ13">
+        <v>331.69</v>
+      </c>
+      <c r="BK13">
+        <v>26.61</v>
+      </c>
+      <c r="BL13">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="BM13">
+        <v>289.35000000000002</v>
+      </c>
+      <c r="BN13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BO13">
+        <v>349.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>464.83999999999992</v>
+      </c>
+      <c r="D14">
+        <v>566.58999999999992</v>
+      </c>
+      <c r="E14">
+        <v>166.91</v>
+      </c>
+      <c r="F14">
+        <v>2.42</v>
+      </c>
+      <c r="G14">
+        <v>1200.76</v>
+      </c>
+      <c r="H14">
+        <v>80.92</v>
+      </c>
+      <c r="I14">
+        <v>100.91</v>
+      </c>
+      <c r="J14">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14">
+        <v>200.07999999999998</v>
+      </c>
+      <c r="M14">
+        <v>36.31</v>
+      </c>
+      <c r="N14">
+        <v>44.52</v>
+      </c>
+      <c r="O14">
+        <v>17.23</v>
+      </c>
+      <c r="P14">
+        <v>0.21</v>
+      </c>
+      <c r="Q14">
+        <v>98.27000000000001</v>
+      </c>
+      <c r="R14">
+        <v>38.28</v>
+      </c>
+      <c r="S14">
+        <v>45.32</v>
+      </c>
+      <c r="T14">
+        <v>7.41</v>
+      </c>
+      <c r="U14">
+        <v>0.1</v>
+      </c>
+      <c r="V14">
+        <v>91.109999999999985</v>
+      </c>
+      <c r="W14">
+        <v>31.58</v>
+      </c>
+      <c r="X14">
+        <v>36.97</v>
+      </c>
+      <c r="Y14">
+        <v>12.16</v>
+      </c>
+      <c r="Z14">
+        <v>0.06</v>
+      </c>
+      <c r="AA14">
+        <v>80.77</v>
+      </c>
+      <c r="AB14">
+        <v>26.63</v>
+      </c>
+      <c r="AC14">
+        <v>34.85</v>
+      </c>
+      <c r="AD14">
+        <v>11.92</v>
+      </c>
+      <c r="AE14">
+        <v>0.4</v>
+      </c>
+      <c r="AF14">
+        <v>73.800000000000011</v>
+      </c>
+      <c r="AG14">
+        <v>34.89</v>
+      </c>
+      <c r="AH14">
+        <v>41.91</v>
+      </c>
+      <c r="AI14">
+        <v>15.14</v>
+      </c>
+      <c r="AJ14">
+        <v>0.08</v>
+      </c>
+      <c r="AK14">
+        <v>92.02</v>
+      </c>
+      <c r="AL14">
+        <v>21.08</v>
+      </c>
+      <c r="AM14">
+        <v>25.95</v>
+      </c>
+      <c r="AN14">
+        <v>11.25</v>
+      </c>
+      <c r="AO14">
+        <v>0.06</v>
+      </c>
+      <c r="AP14">
+        <v>58.34</v>
+      </c>
+      <c r="AQ14">
+        <v>24.33</v>
+      </c>
+      <c r="AR14">
+        <v>30.88</v>
+      </c>
+      <c r="AS14">
+        <v>15.54</v>
+      </c>
+      <c r="AT14">
+        <v>0.15</v>
+      </c>
+      <c r="AU14">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AV14">
+        <v>25.91</v>
+      </c>
+      <c r="AW14">
+        <v>31.83</v>
+      </c>
+      <c r="AX14">
+        <v>12.46</v>
+      </c>
+      <c r="AY14">
+        <v>0.22</v>
+      </c>
+      <c r="AZ14">
+        <v>70.419999999999987</v>
+      </c>
+      <c r="BA14">
+        <v>34.53</v>
+      </c>
+      <c r="BB14">
+        <v>41.2</v>
+      </c>
+      <c r="BC14">
+        <v>12.84</v>
+      </c>
+      <c r="BD14">
+        <v>0.17</v>
+      </c>
+      <c r="BE14">
+        <v>88.740000000000009</v>
+      </c>
+      <c r="BF14">
+        <v>39.28</v>
+      </c>
+      <c r="BG14">
+        <v>49.39</v>
+      </c>
+      <c r="BH14">
+        <v>12.78</v>
+      </c>
+      <c r="BI14">
+        <v>0.67</v>
+      </c>
+      <c r="BJ14">
+        <v>102.12</v>
+      </c>
+      <c r="BK14">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="BL14">
+        <v>82.86</v>
+      </c>
+      <c r="BM14">
+        <v>20.03</v>
+      </c>
+      <c r="BN14">
+        <v>0.2</v>
+      </c>
+      <c r="BO14">
+        <v>174.18999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>237.96000000000004</v>
+      </c>
+      <c r="D15">
+        <v>295.85000000000002</v>
+      </c>
+      <c r="E15">
+        <v>124.12</v>
+      </c>
+      <c r="F15">
+        <v>23.669999999999998</v>
+      </c>
+      <c r="G15">
+        <v>681.59999999999991</v>
+      </c>
+      <c r="H15">
+        <v>30.71</v>
+      </c>
+      <c r="I15">
+        <v>40.6</v>
+      </c>
+      <c r="J15">
+        <v>10.42</v>
+      </c>
+      <c r="K15">
+        <v>4.13</v>
+      </c>
+      <c r="L15">
+        <v>85.86</v>
+      </c>
+      <c r="M15">
+        <v>15.71</v>
+      </c>
+      <c r="N15">
+        <v>19.25</v>
+      </c>
+      <c r="O15">
+        <v>6.38</v>
+      </c>
+      <c r="P15">
+        <v>3.35</v>
+      </c>
+      <c r="Q15">
+        <v>44.690000000000005</v>
+      </c>
+      <c r="R15">
+        <v>16.66</v>
+      </c>
+      <c r="S15">
+        <v>20.63</v>
+      </c>
+      <c r="T15">
+        <v>10.14</v>
+      </c>
+      <c r="U15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V15">
+        <v>49.44</v>
+      </c>
+      <c r="W15">
+        <v>20.43</v>
+      </c>
+      <c r="X15">
+        <v>25.58</v>
+      </c>
+      <c r="Y15">
+        <v>9.89</v>
+      </c>
+      <c r="Z15">
+        <v>1.69</v>
+      </c>
+      <c r="AA15">
+        <v>57.589999999999996</v>
+      </c>
+      <c r="AB15">
+        <v>14.76</v>
+      </c>
+      <c r="AC15">
+        <v>19.02</v>
+      </c>
+      <c r="AD15">
+        <v>7.48</v>
+      </c>
+      <c r="AE15">
+        <v>1.04</v>
+      </c>
+      <c r="AF15">
+        <v>42.300000000000004</v>
+      </c>
+      <c r="AG15">
+        <v>15.95</v>
+      </c>
+      <c r="AH15">
+        <v>20.28</v>
+      </c>
+      <c r="AI15">
+        <v>11.37</v>
+      </c>
+      <c r="AJ15">
+        <v>0.91</v>
+      </c>
+      <c r="AK15">
+        <v>48.51</v>
+      </c>
+      <c r="AL15">
+        <v>15.8</v>
+      </c>
+      <c r="AM15">
+        <v>19.45</v>
+      </c>
+      <c r="AN15">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="AO15">
+        <v>1.61</v>
+      </c>
+      <c r="AP15">
+        <v>45.33</v>
+      </c>
+      <c r="AQ15">
+        <v>18.91</v>
+      </c>
+      <c r="AR15">
+        <v>21.38</v>
+      </c>
+      <c r="AS15">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="AT15">
+        <v>1.52</v>
+      </c>
+      <c r="AU15">
+        <v>51.85</v>
+      </c>
+      <c r="AV15">
+        <v>17.36</v>
+      </c>
+      <c r="AW15">
+        <v>21.51</v>
+      </c>
+      <c r="AX15">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="AY15">
+        <v>2.42</v>
+      </c>
+      <c r="AZ15">
+        <v>50.84</v>
+      </c>
+      <c r="BA15">
+        <v>22.52</v>
+      </c>
+      <c r="BB15">
+        <v>27.58</v>
+      </c>
+      <c r="BC15">
+        <v>12.37</v>
+      </c>
+      <c r="BD15">
+        <v>2.15</v>
+      </c>
+      <c r="BE15">
+        <v>64.61999999999999</v>
+      </c>
+      <c r="BF15">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="BG15">
+        <v>24.85</v>
+      </c>
+      <c r="BH15">
+        <v>10.25</v>
+      </c>
+      <c r="BI15">
+        <v>1.38</v>
+      </c>
+      <c r="BJ15">
+        <v>55.920000000000009</v>
+      </c>
+      <c r="BK15">
+        <v>29.71</v>
+      </c>
+      <c r="BL15">
+        <v>35.72</v>
+      </c>
+      <c r="BM15">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="BN15">
+        <v>1.46</v>
+      </c>
+      <c r="BO15">
+        <v>84.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>247.95</v>
+      </c>
+      <c r="D16">
+        <v>348.03</v>
+      </c>
+      <c r="E16">
+        <v>102.49</v>
+      </c>
+      <c r="F16">
+        <v>0.76000000000000012</v>
+      </c>
+      <c r="G16">
+        <v>699.23000000000013</v>
+      </c>
+      <c r="H16">
+        <v>41.34</v>
+      </c>
+      <c r="I16">
+        <v>52.61</v>
+      </c>
+      <c r="J16">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="K16">
+        <v>0.08</v>
+      </c>
+      <c r="L16">
+        <v>103.98</v>
+      </c>
+      <c r="M16">
+        <v>19.66</v>
+      </c>
+      <c r="N16">
+        <v>31.59</v>
+      </c>
+      <c r="O16">
+        <v>7.23</v>
+      </c>
+      <c r="P16">
+        <v>0.02</v>
+      </c>
+      <c r="Q16">
+        <v>58.500000000000007</v>
+      </c>
+      <c r="R16">
+        <v>21.1</v>
+      </c>
+      <c r="S16">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="T16">
+        <v>7.05</v>
+      </c>
+      <c r="U16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V16">
+        <v>62.089999999999996</v>
+      </c>
+      <c r="W16">
+        <v>25.85</v>
+      </c>
+      <c r="X16">
+        <v>34.22</v>
+      </c>
+      <c r="Y16">
+        <v>7.57</v>
+      </c>
+      <c r="Z16">
+        <v>0.02</v>
+      </c>
+      <c r="AA16">
+        <v>67.66</v>
+      </c>
+      <c r="AB16">
+        <v>18.36</v>
+      </c>
+      <c r="AC16">
+        <v>29.04</v>
+      </c>
+      <c r="AD16">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="AE16">
+        <v>0.03</v>
+      </c>
+      <c r="AF16">
+        <v>55.55</v>
+      </c>
+      <c r="AG16">
+        <v>11.62</v>
+      </c>
+      <c r="AH16">
+        <v>17.5</v>
+      </c>
+      <c r="AI16">
+        <v>8.69</v>
+      </c>
+      <c r="AJ16">
+        <v>0.01</v>
+      </c>
+      <c r="AK16">
+        <v>37.819999999999993</v>
+      </c>
+      <c r="AL16">
+        <v>26.84</v>
+      </c>
+      <c r="AM16">
+        <v>32.75</v>
+      </c>
+      <c r="AN16">
+        <v>6.99</v>
+      </c>
+      <c r="AO16">
+        <v>0.02</v>
+      </c>
+      <c r="AP16">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="AQ16">
+        <v>13.3</v>
+      </c>
+      <c r="AR16">
+        <v>17.64</v>
+      </c>
+      <c r="AS16">
+        <v>7.24</v>
+      </c>
+      <c r="AT16">
+        <v>0.04</v>
+      </c>
+      <c r="AU16">
+        <v>38.22</v>
+      </c>
+      <c r="AV16">
+        <v>14.9</v>
+      </c>
+      <c r="AW16">
+        <v>21.28</v>
+      </c>
+      <c r="AX16">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="AY16">
+        <v>0.12</v>
+      </c>
+      <c r="AZ16">
+        <v>45.85</v>
+      </c>
+      <c r="BA16">
+        <v>18.54</v>
+      </c>
+      <c r="BB16">
+        <v>25.46</v>
+      </c>
+      <c r="BC16">
+        <v>11.44</v>
+      </c>
+      <c r="BD16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BE16">
+        <v>55.58</v>
+      </c>
+      <c r="BF16">
+        <v>17.37</v>
+      </c>
+      <c r="BG16">
+        <v>24</v>
+      </c>
+      <c r="BH16">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="BI16">
+        <v>0.06</v>
+      </c>
+      <c r="BJ16">
+        <v>50.390000000000008</v>
+      </c>
+      <c r="BK16">
+        <v>19.07</v>
+      </c>
+      <c r="BL16">
+        <v>28.07</v>
+      </c>
+      <c r="BM16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BN16">
+        <v>0.15</v>
+      </c>
+      <c r="BO16">
+        <v>56.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>193.44</v>
+      </c>
+      <c r="D17">
+        <v>264.47000000000003</v>
+      </c>
+      <c r="E17">
+        <v>53.28</v>
+      </c>
+      <c r="F17">
+        <v>0.9700000000000002</v>
+      </c>
+      <c r="G17">
+        <v>512.15999999999985</v>
+      </c>
+      <c r="H17">
+        <v>43.71</v>
+      </c>
+      <c r="I17">
+        <v>59.38</v>
+      </c>
+      <c r="J17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K17">
+        <v>0.08</v>
+      </c>
+      <c r="L17">
+        <v>108.07000000000001</v>
+      </c>
+      <c r="M17">
+        <v>14.85</v>
+      </c>
+      <c r="N17">
+        <v>21.61</v>
+      </c>
+      <c r="O17">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="P17">
+        <v>0.11</v>
+      </c>
+      <c r="Q17">
+        <v>39</v>
+      </c>
+      <c r="R17">
+        <v>14.69</v>
+      </c>
+      <c r="S17">
+        <v>22.78</v>
+      </c>
+      <c r="T17">
+        <v>4.5</v>
+      </c>
+      <c r="U17">
+        <v>0.26</v>
+      </c>
+      <c r="V17">
+        <v>42.23</v>
+      </c>
+      <c r="W17">
+        <v>13.59</v>
+      </c>
+      <c r="X17">
+        <v>21.07</v>
+      </c>
+      <c r="Y17">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="Z17">
+        <v>0.11</v>
+      </c>
+      <c r="AA17">
+        <v>38.879999999999995</v>
+      </c>
+      <c r="AB17">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="AC17">
+        <v>13.57</v>
+      </c>
+      <c r="AD17">
+        <v>3.75</v>
+      </c>
+      <c r="AE17">
+        <v>0.22</v>
+      </c>
+      <c r="AF17">
+        <v>27.659999999999997</v>
+      </c>
+      <c r="AG17">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="AH17">
+        <v>12.01</v>
+      </c>
+      <c r="AI17">
+        <v>4.99</v>
+      </c>
+      <c r="AJ17">
+        <v>0.02</v>
+      </c>
+      <c r="AK17">
+        <v>26.150000000000002</v>
+      </c>
+      <c r="AL17">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="AM17">
+        <v>20.03</v>
+      </c>
+      <c r="AN17">
+        <v>3.28</v>
+      </c>
+      <c r="AO17">
+        <v>0.03</v>
+      </c>
+      <c r="AP17">
+        <v>41.42</v>
+      </c>
+      <c r="AQ17">
+        <v>13.64</v>
+      </c>
+      <c r="AR17">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="AS17">
+        <v>5.73</v>
+      </c>
+      <c r="AT17">
+        <v>0.02</v>
+      </c>
+      <c r="AU17">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="AV17">
+        <v>10.95</v>
+      </c>
+      <c r="AW17">
+        <v>13.55</v>
+      </c>
+      <c r="AX17">
+        <v>3.74</v>
+      </c>
+      <c r="AY17">
+        <v>0.03</v>
+      </c>
+      <c r="AZ17">
+        <v>28.270000000000003</v>
+      </c>
+      <c r="BA17">
+        <v>12.22</v>
+      </c>
+      <c r="BB17">
+        <v>16.54</v>
+      </c>
+      <c r="BC17">
+        <v>5.86</v>
+      </c>
+      <c r="BD17">
+        <v>0.03</v>
+      </c>
+      <c r="BE17">
+        <v>34.65</v>
+      </c>
+      <c r="BF17">
+        <v>15.22</v>
+      </c>
+      <c r="BG17">
+        <v>22</v>
+      </c>
+      <c r="BH17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BI17">
+        <v>0.02</v>
+      </c>
+      <c r="BJ17">
+        <v>41.64</v>
+      </c>
+      <c r="BK17">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="BL17">
+        <v>23.44</v>
+      </c>
+      <c r="BM17">
+        <v>5.59</v>
+      </c>
+      <c r="BN17">
+        <v>0.04</v>
+      </c>
+      <c r="BO17">
+        <v>46.309999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>450.42</v>
+      </c>
+      <c r="D18">
+        <v>578.04</v>
+      </c>
+      <c r="E18">
+        <v>161.92000000000002</v>
+      </c>
+      <c r="F18">
+        <v>2.9199999999999995</v>
+      </c>
+      <c r="G18">
+        <v>1193.3</v>
+      </c>
+      <c r="H18">
+        <v>64.34</v>
+      </c>
+      <c r="I18">
+        <v>79.81</v>
+      </c>
+      <c r="J18">
+        <v>16.43</v>
+      </c>
+      <c r="K18">
+        <v>0.04</v>
+      </c>
+      <c r="L18">
+        <v>160.62</v>
+      </c>
+      <c r="M18">
+        <v>28.32</v>
+      </c>
+      <c r="N18">
+        <v>36.03</v>
+      </c>
+      <c r="O18">
+        <v>8.09</v>
+      </c>
+      <c r="P18">
+        <v>0.12</v>
+      </c>
+      <c r="Q18">
+        <v>72.56</v>
+      </c>
+      <c r="R18">
+        <v>27.03</v>
+      </c>
+      <c r="S18">
+        <v>35.619999999999997</v>
+      </c>
+      <c r="T18">
+        <v>11.45</v>
+      </c>
+      <c r="U18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V18">
+        <v>74.169999999999987</v>
+      </c>
+      <c r="W18">
+        <v>25.96</v>
+      </c>
+      <c r="X18">
+        <v>34.71</v>
+      </c>
+      <c r="Y18">
+        <v>11.21</v>
+      </c>
+      <c r="Z18">
+        <v>0.08</v>
+      </c>
+      <c r="AA18">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="AB18">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="AC18">
+        <v>41.3</v>
+      </c>
+      <c r="AD18">
+        <v>10.48</v>
+      </c>
+      <c r="AE18">
+        <v>0.02</v>
+      </c>
+      <c r="AF18">
+        <v>85.169999999999987</v>
+      </c>
+      <c r="AG18">
+        <v>26.5</v>
+      </c>
+      <c r="AH18">
+        <v>33.69</v>
+      </c>
+      <c r="AI18">
+        <v>18.16</v>
+      </c>
+      <c r="AJ18">
+        <v>0.38</v>
+      </c>
+      <c r="AK18">
+        <v>78.72999999999999</v>
+      </c>
+      <c r="AL18">
+        <v>42.83</v>
+      </c>
+      <c r="AM18">
+        <v>50.36</v>
+      </c>
+      <c r="AN18">
+        <v>10.46</v>
+      </c>
+      <c r="AO18">
+        <v>1.34</v>
+      </c>
+      <c r="AP18">
+        <v>104.99000000000001</v>
+      </c>
+      <c r="AQ18">
+        <v>30.43</v>
+      </c>
+      <c r="AR18">
+        <v>40</v>
+      </c>
+      <c r="AS18">
+        <v>27.87</v>
+      </c>
+      <c r="AT18">
+        <v>0.03</v>
+      </c>
+      <c r="AU18">
+        <v>98.330000000000013</v>
+      </c>
+      <c r="AV18">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="AW18">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="AX18">
+        <v>10.63</v>
+      </c>
+      <c r="AY18">
+        <v>0.11</v>
+      </c>
+      <c r="AZ18">
+        <v>83.059999999999988</v>
+      </c>
+      <c r="BA18">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="BB18">
+        <v>50.51</v>
+      </c>
+      <c r="BC18">
+        <v>11.8</v>
+      </c>
+      <c r="BD18">
+        <v>0.48</v>
+      </c>
+      <c r="BE18">
+        <v>100.88</v>
+      </c>
+      <c r="BF18">
+        <v>38.83</v>
+      </c>
+      <c r="BG18">
+        <v>52.27</v>
+      </c>
+      <c r="BH18">
+        <v>12.1</v>
+      </c>
+      <c r="BI18">
+        <v>0.13</v>
+      </c>
+      <c r="BJ18">
+        <v>103.32999999999998</v>
+      </c>
+      <c r="BK18">
+        <v>62.24</v>
+      </c>
+      <c r="BL18">
+        <v>83.9</v>
+      </c>
+      <c r="BM18">
+        <v>13.24</v>
+      </c>
+      <c r="BN18">
+        <v>0.12</v>
+      </c>
+      <c r="BO18">
+        <v>159.50000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>529.42000000000007</v>
+      </c>
+      <c r="D19">
+        <v>645.92999999999995</v>
+      </c>
+      <c r="E19">
+        <v>1002.9</v>
+      </c>
+      <c r="F19">
+        <v>13.58</v>
+      </c>
+      <c r="G19">
+        <v>2191.83</v>
+      </c>
+      <c r="H19">
+        <v>63.17</v>
+      </c>
+      <c r="I19">
+        <v>75.59</v>
+      </c>
+      <c r="J19">
+        <v>94.82</v>
+      </c>
+      <c r="K19">
+        <v>0.38</v>
+      </c>
+      <c r="L19">
+        <v>233.95999999999998</v>
+      </c>
+      <c r="M19">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="N19">
+        <v>51.64</v>
+      </c>
+      <c r="O19">
+        <v>79.8</v>
+      </c>
+      <c r="P19">
+        <v>3.05</v>
+      </c>
+      <c r="Q19">
+        <v>172.08</v>
+      </c>
+      <c r="R19">
+        <v>46.24</v>
+      </c>
+      <c r="S19">
+        <v>54.98</v>
+      </c>
+      <c r="T19">
+        <v>78</v>
+      </c>
+      <c r="U19">
+        <v>1.25</v>
+      </c>
+      <c r="V19">
+        <v>180.47</v>
+      </c>
+      <c r="W19">
+        <v>33.72</v>
+      </c>
+      <c r="X19">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="Y19">
+        <v>65.98</v>
+      </c>
+      <c r="Z19">
+        <v>1.66</v>
+      </c>
+      <c r="AA19">
+        <v>141.52000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>41.27</v>
+      </c>
+      <c r="AC19">
+        <v>45.9</v>
+      </c>
+      <c r="AD19">
+        <v>67.87</v>
+      </c>
+      <c r="AE19">
+        <v>0.11</v>
+      </c>
+      <c r="AF19">
+        <v>155.15000000000003</v>
+      </c>
+      <c r="AG19">
+        <v>35.93</v>
+      </c>
+      <c r="AH19">
+        <v>42.96</v>
+      </c>
+      <c r="AI19">
+        <v>73.63</v>
+      </c>
+      <c r="AJ19">
+        <v>0.36</v>
+      </c>
+      <c r="AK19">
+        <v>152.88</v>
+      </c>
+      <c r="AL19">
+        <v>40.81</v>
+      </c>
+      <c r="AM19">
+        <v>51.68</v>
+      </c>
+      <c r="AN19">
+        <v>71.209999999999994</v>
+      </c>
+      <c r="AO19">
+        <v>0.06</v>
+      </c>
+      <c r="AP19">
+        <v>163.76</v>
+      </c>
+      <c r="AQ19">
+        <v>37.44</v>
+      </c>
+      <c r="AR19">
+        <v>44.21</v>
+      </c>
+      <c r="AS19">
+        <v>61.93</v>
+      </c>
+      <c r="AT19">
+        <v>0.1</v>
+      </c>
+      <c r="AU19">
+        <v>143.68</v>
+      </c>
+      <c r="AV19">
+        <v>30.47</v>
+      </c>
+      <c r="AW19">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="AX19">
+        <v>79.14</v>
+      </c>
+      <c r="AY19">
+        <v>3.98</v>
+      </c>
+      <c r="AZ19">
+        <v>150.22</v>
+      </c>
+      <c r="BA19">
+        <v>48.59</v>
+      </c>
+      <c r="BB19">
+        <v>62.87</v>
+      </c>
+      <c r="BC19">
+        <v>103.09</v>
+      </c>
+      <c r="BD19">
+        <v>1.56</v>
+      </c>
+      <c r="BE19">
+        <v>216.11</v>
+      </c>
+      <c r="BF19">
+        <v>42.48</v>
+      </c>
+      <c r="BG19">
+        <v>53.89</v>
+      </c>
+      <c r="BH19">
+        <v>117.54</v>
+      </c>
+      <c r="BI19">
+        <v>0.4</v>
+      </c>
+      <c r="BJ19">
+        <v>214.31000000000003</v>
+      </c>
+      <c r="BK19">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="BL19">
+        <v>85.42</v>
+      </c>
+      <c r="BM19">
+        <v>109.89</v>
+      </c>
+      <c r="BN19">
+        <v>0.67</v>
+      </c>
+      <c r="BO19">
+        <v>267.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>5118.0499999999993</v>
+      </c>
+      <c r="D20">
+        <v>6532.6399999999994</v>
+      </c>
+      <c r="E20">
+        <v>4346.3</v>
+      </c>
+      <c r="F20">
+        <v>1418.22</v>
+      </c>
+      <c r="G20">
+        <v>17415.210000000003</v>
+      </c>
+      <c r="H20">
+        <v>601.58000000000004</v>
+      </c>
+      <c r="I20">
+        <v>735.17</v>
+      </c>
+      <c r="J20">
+        <v>371.56</v>
+      </c>
+      <c r="K20">
+        <v>186.25</v>
+      </c>
+      <c r="L20">
+        <v>1894.56</v>
+      </c>
+      <c r="M20">
+        <v>375.64</v>
+      </c>
+      <c r="N20">
+        <v>511.47</v>
+      </c>
+      <c r="O20">
+        <v>281.93</v>
+      </c>
+      <c r="P20">
+        <v>59.42</v>
+      </c>
+      <c r="Q20">
+        <v>1228.46</v>
+      </c>
+      <c r="R20">
+        <v>408.9</v>
+      </c>
+      <c r="S20">
+        <v>515.92999999999995</v>
+      </c>
+      <c r="T20">
+        <v>364.88</v>
+      </c>
+      <c r="U20">
+        <v>158.78</v>
+      </c>
+      <c r="V20">
+        <v>1448.49</v>
+      </c>
+      <c r="W20">
+        <v>379.03</v>
+      </c>
+      <c r="X20">
+        <v>463.24</v>
+      </c>
+      <c r="Y20">
+        <v>371.76</v>
+      </c>
+      <c r="Z20">
+        <v>155.83000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>1369.86</v>
+      </c>
+      <c r="AB20">
+        <v>388.73</v>
+      </c>
+      <c r="AC20">
+        <v>483.02</v>
+      </c>
+      <c r="AD20">
+        <v>372.99</v>
+      </c>
+      <c r="AE20">
+        <v>108.66</v>
+      </c>
+      <c r="AF20">
+        <v>1353.4</v>
+      </c>
+      <c r="AG20">
+        <v>380.28</v>
+      </c>
+      <c r="AH20">
+        <v>471.66</v>
+      </c>
+      <c r="AI20">
+        <v>365.79</v>
+      </c>
+      <c r="AJ20">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="AK20">
+        <v>1286.77</v>
+      </c>
+      <c r="AL20">
+        <v>408.39</v>
+      </c>
+      <c r="AM20">
+        <v>522.35</v>
+      </c>
+      <c r="AN20">
+        <v>412.2</v>
+      </c>
+      <c r="AO20">
+        <v>134.62</v>
+      </c>
+      <c r="AP20">
+        <v>1477.56</v>
+      </c>
+      <c r="AQ20">
+        <v>392.05</v>
+      </c>
+      <c r="AR20">
+        <v>503.43</v>
+      </c>
+      <c r="AS20">
+        <v>358.61</v>
+      </c>
+      <c r="AT20">
+        <v>103.51</v>
+      </c>
+      <c r="AU20">
+        <v>1357.6000000000001</v>
+      </c>
+      <c r="AV20">
+        <v>396.2</v>
+      </c>
+      <c r="AW20">
+        <v>505.45</v>
+      </c>
+      <c r="AX20">
+        <v>377.11</v>
+      </c>
+      <c r="AY20">
+        <v>94.87</v>
+      </c>
+      <c r="AZ20">
+        <v>1373.63</v>
+      </c>
+      <c r="BA20">
+        <v>424.57</v>
+      </c>
+      <c r="BB20">
+        <v>562.75</v>
+      </c>
+      <c r="BC20">
+        <v>372.59</v>
+      </c>
+      <c r="BD20">
+        <v>106.11</v>
+      </c>
+      <c r="BE20">
+        <v>1466.0199999999998</v>
+      </c>
+      <c r="BF20">
+        <v>432.61</v>
+      </c>
+      <c r="BG20">
+        <v>564.63</v>
+      </c>
+      <c r="BH20">
+        <v>334.02</v>
+      </c>
+      <c r="BI20">
+        <v>119.68</v>
+      </c>
+      <c r="BJ20">
+        <v>1450.94</v>
+      </c>
+      <c r="BK20">
+        <v>530.07000000000005</v>
+      </c>
+      <c r="BL20">
+        <v>693.54</v>
+      </c>
+      <c r="BM20">
+        <v>362.86</v>
+      </c>
+      <c r="BN20">
+        <v>121.45</v>
+      </c>
+      <c r="BO20">
+        <v>1707.9200000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>19790.210000000003</v>
+      </c>
+      <c r="D21">
+        <v>24085.220000000005</v>
+      </c>
+      <c r="E21">
+        <v>17552.020000000004</v>
+      </c>
+      <c r="F21">
+        <v>5464.83</v>
+      </c>
+      <c r="G21">
+        <v>66892.280000000013</v>
+      </c>
+      <c r="H21">
+        <v>2177.9499999999998</v>
+      </c>
+      <c r="I21">
+        <v>2640.03</v>
+      </c>
+      <c r="J21">
+        <v>1894.17</v>
+      </c>
+      <c r="K21">
+        <v>581.30999999999995</v>
+      </c>
+      <c r="L21">
+        <v>7293.4599999999991</v>
+      </c>
+      <c r="M21">
+        <v>1619.58</v>
+      </c>
+      <c r="N21">
+        <v>2029.96</v>
+      </c>
+      <c r="O21">
+        <v>1313.96</v>
+      </c>
+      <c r="P21">
+        <v>413.48</v>
+      </c>
+      <c r="Q21">
+        <v>5376.98</v>
+      </c>
+      <c r="R21">
+        <v>1526.38</v>
+      </c>
+      <c r="S21">
+        <v>1870.94</v>
+      </c>
+      <c r="T21">
+        <v>1388.06</v>
+      </c>
+      <c r="U21">
+        <v>487.32</v>
+      </c>
+      <c r="V21">
+        <v>5272.7</v>
+      </c>
+      <c r="W21">
+        <v>1558.83</v>
+      </c>
+      <c r="X21">
+        <v>1925.17</v>
+      </c>
+      <c r="Y21">
+        <v>1310.1199999999999</v>
+      </c>
+      <c r="Z21">
+        <v>462.46</v>
+      </c>
+      <c r="AA21">
+        <v>5256.58</v>
+      </c>
+      <c r="AB21">
+        <v>1503.35</v>
+      </c>
+      <c r="AC21">
+        <v>1846.55</v>
+      </c>
+      <c r="AD21">
+        <v>1323.32</v>
+      </c>
+      <c r="AE21">
+        <v>404.05</v>
+      </c>
+      <c r="AF21">
+        <v>5077.2699999999995</v>
+      </c>
+      <c r="AG21">
+        <v>1489.75</v>
+      </c>
+      <c r="AH21">
+        <v>1805.89</v>
+      </c>
+      <c r="AI21">
+        <v>1449.56</v>
+      </c>
+      <c r="AJ21">
+        <v>421.51</v>
+      </c>
+      <c r="AK21">
+        <v>5166.7100000000009</v>
+      </c>
+      <c r="AL21">
+        <v>1624.13</v>
+      </c>
+      <c r="AM21">
+        <v>2009.07</v>
+      </c>
+      <c r="AN21">
+        <v>1530.67</v>
+      </c>
+      <c r="AO21">
+        <v>432.96</v>
+      </c>
+      <c r="AP21">
+        <v>5596.83</v>
+      </c>
+      <c r="AQ21">
+        <v>1568.77</v>
+      </c>
+      <c r="AR21">
+        <v>1897.28</v>
+      </c>
+      <c r="AS21">
+        <v>1378.52</v>
+      </c>
+      <c r="AT21">
+        <v>361.19</v>
+      </c>
+      <c r="AU21">
+        <v>5205.7599999999993</v>
+      </c>
+      <c r="AV21">
+        <v>1518.15</v>
+      </c>
+      <c r="AW21">
+        <v>1809.4</v>
+      </c>
+      <c r="AX21">
+        <v>1399.52</v>
+      </c>
+      <c r="AY21">
+        <v>462.46</v>
+      </c>
+      <c r="AZ21">
+        <v>5189.53</v>
+      </c>
+      <c r="BA21">
+        <v>1709.45</v>
+      </c>
+      <c r="BB21">
+        <v>2074.13</v>
+      </c>
+      <c r="BC21">
+        <v>1591.92</v>
+      </c>
+      <c r="BD21">
+        <v>457.15</v>
+      </c>
+      <c r="BE21">
+        <v>5832.65</v>
+      </c>
+      <c r="BF21">
+        <v>1694.4</v>
+      </c>
+      <c r="BG21">
+        <v>2029.4</v>
+      </c>
+      <c r="BH21">
+        <v>1506.2</v>
+      </c>
+      <c r="BI21">
+        <v>566.79</v>
+      </c>
+      <c r="BJ21">
+        <v>5796.79</v>
+      </c>
+      <c r="BK21">
+        <v>1799.47</v>
+      </c>
+      <c r="BL21">
+        <v>2147.4</v>
+      </c>
+      <c r="BM21">
+        <v>1466</v>
+      </c>
+      <c r="BN21">
+        <v>414.15</v>
+      </c>
+      <c r="BO21">
+        <v>5827.0199999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>6779.829999999999</v>
+      </c>
+      <c r="D22">
+        <v>8923.07</v>
+      </c>
+      <c r="E22">
+        <v>13320.190000000002</v>
+      </c>
+      <c r="F22">
+        <v>7818.1399999999994</v>
+      </c>
+      <c r="G22">
+        <v>36841.230000000003</v>
+      </c>
+      <c r="H22">
+        <v>714.08</v>
+      </c>
+      <c r="I22">
+        <v>934.43</v>
+      </c>
+      <c r="J22">
+        <v>1492.99</v>
+      </c>
+      <c r="K22">
+        <v>687.71</v>
+      </c>
+      <c r="L22">
+        <v>3829.21</v>
+      </c>
+      <c r="M22">
+        <v>536.82000000000005</v>
+      </c>
+      <c r="N22">
+        <v>735.31</v>
+      </c>
+      <c r="O22">
+        <v>804.1</v>
+      </c>
+      <c r="P22">
+        <v>623.64</v>
+      </c>
+      <c r="Q22">
+        <v>2699.87</v>
+      </c>
+      <c r="R22">
+        <v>461.28</v>
+      </c>
+      <c r="S22">
+        <v>639.01</v>
+      </c>
+      <c r="T22">
+        <v>1008.46</v>
+      </c>
+      <c r="U22">
+        <v>704.98</v>
+      </c>
+      <c r="V22">
+        <v>2813.73</v>
+      </c>
+      <c r="W22">
+        <v>558.54999999999995</v>
+      </c>
+      <c r="X22">
+        <v>740.79</v>
+      </c>
+      <c r="Y22">
+        <v>1166.3800000000001</v>
+      </c>
+      <c r="Z22">
+        <v>669.18</v>
+      </c>
+      <c r="AA22">
+        <v>3134.9</v>
+      </c>
+      <c r="AB22">
+        <v>527.16999999999996</v>
+      </c>
+      <c r="AC22">
+        <v>669.26</v>
+      </c>
+      <c r="AD22">
+        <v>983.3</v>
+      </c>
+      <c r="AE22">
+        <v>670.32</v>
+      </c>
+      <c r="AF22">
+        <v>2850.0499999999997</v>
+      </c>
+      <c r="AG22">
+        <v>492.48</v>
+      </c>
+      <c r="AH22">
+        <v>636.89</v>
+      </c>
+      <c r="AI22">
+        <v>942.48</v>
+      </c>
+      <c r="AJ22">
+        <v>580.83000000000004</v>
+      </c>
+      <c r="AK22">
+        <v>2652.68</v>
+      </c>
+      <c r="AL22">
+        <v>553.94000000000005</v>
+      </c>
+      <c r="AM22">
+        <v>718.96</v>
+      </c>
+      <c r="AN22">
+        <v>1114.31</v>
+      </c>
+      <c r="AO22">
+        <v>586.83000000000004</v>
+      </c>
+      <c r="AP22">
+        <v>2974.04</v>
+      </c>
+      <c r="AQ22">
+        <v>547.04999999999995</v>
+      </c>
+      <c r="AR22">
+        <v>701.59</v>
+      </c>
+      <c r="AS22">
+        <v>1078.69</v>
+      </c>
+      <c r="AT22">
+        <v>623.12</v>
+      </c>
+      <c r="AU22">
+        <v>2950.45</v>
+      </c>
+      <c r="AV22">
+        <v>548.53</v>
+      </c>
+      <c r="AW22">
+        <v>704.9</v>
+      </c>
+      <c r="AX22">
+        <v>1074.6300000000001</v>
+      </c>
+      <c r="AY22">
+        <v>653.36</v>
+      </c>
+      <c r="AZ22">
+        <v>2981.42</v>
+      </c>
+      <c r="BA22">
+        <v>590.87</v>
+      </c>
+      <c r="BB22">
+        <v>752.58</v>
+      </c>
+      <c r="BC22">
+        <v>1287.3499999999999</v>
+      </c>
+      <c r="BD22">
+        <v>696.43</v>
+      </c>
+      <c r="BE22">
+        <v>3327.23</v>
+      </c>
+      <c r="BF22">
+        <v>598.20000000000005</v>
+      </c>
+      <c r="BG22">
+        <v>787.04</v>
+      </c>
+      <c r="BH22">
+        <v>1237.96</v>
+      </c>
+      <c r="BI22">
+        <v>695.72</v>
+      </c>
+      <c r="BJ22">
+        <v>3318.92</v>
+      </c>
+      <c r="BK22">
+        <v>650.86</v>
+      </c>
+      <c r="BL22">
+        <v>902.31</v>
+      </c>
+      <c r="BM22">
+        <v>1129.54</v>
+      </c>
+      <c r="BN22">
+        <v>626.02</v>
+      </c>
+      <c r="BO22">
+        <v>3308.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>14677.480000000001</v>
+      </c>
+      <c r="D23">
+        <v>18108.100000000002</v>
+      </c>
+      <c r="E23">
+        <v>17957.36</v>
+      </c>
+      <c r="F23">
+        <v>10185.5</v>
+      </c>
+      <c r="G23">
+        <v>60928.44</v>
+      </c>
+      <c r="H23">
+        <v>1674.38</v>
+      </c>
+      <c r="I23">
+        <v>2081.83</v>
+      </c>
+      <c r="J23">
+        <v>1349.66</v>
+      </c>
+      <c r="K23">
+        <v>796.38</v>
+      </c>
+      <c r="L23">
+        <v>5902.25</v>
+      </c>
+      <c r="M23">
+        <v>1177.83</v>
+      </c>
+      <c r="N23">
+        <v>1415.25</v>
+      </c>
+      <c r="O23">
+        <v>1622.67</v>
+      </c>
+      <c r="P23">
+        <v>811.04</v>
+      </c>
+      <c r="Q23">
+        <v>5026.79</v>
+      </c>
+      <c r="R23">
+        <v>1242.25</v>
+      </c>
+      <c r="S23">
+        <v>1458.96</v>
+      </c>
+      <c r="T23">
+        <v>1424.14</v>
+      </c>
+      <c r="U23">
+        <v>861.92</v>
+      </c>
+      <c r="V23">
+        <v>4987.2700000000004</v>
+      </c>
+      <c r="W23">
+        <v>1237.69</v>
+      </c>
+      <c r="X23">
+        <v>1482.22</v>
+      </c>
+      <c r="Y23">
+        <v>1385.06</v>
+      </c>
+      <c r="Z23">
+        <v>820.05</v>
+      </c>
+      <c r="AA23">
+        <v>4925.0199999999995</v>
+      </c>
+      <c r="AB23">
+        <v>1181.1300000000001</v>
+      </c>
+      <c r="AC23">
+        <v>1378.12</v>
+      </c>
+      <c r="AD23">
+        <v>1515.41</v>
+      </c>
+      <c r="AE23">
+        <v>803.7</v>
+      </c>
+      <c r="AF23">
+        <v>4878.3599999999997</v>
+      </c>
+      <c r="AG23">
+        <v>1054.1500000000001</v>
+      </c>
+      <c r="AH23">
+        <v>1272.75</v>
+      </c>
+      <c r="AI23">
+        <v>1449.38</v>
+      </c>
+      <c r="AJ23">
+        <v>819.89</v>
+      </c>
+      <c r="AK23">
+        <v>4596.17</v>
+      </c>
+      <c r="AL23">
+        <v>1043.07</v>
+      </c>
+      <c r="AM23">
+        <v>1288.0999999999999</v>
+      </c>
+      <c r="AN23">
+        <v>1431.23</v>
+      </c>
+      <c r="AO23">
+        <v>829.58</v>
+      </c>
+      <c r="AP23">
+        <v>4591.9800000000005</v>
+      </c>
+      <c r="AQ23">
+        <v>1094.2</v>
+      </c>
+      <c r="AR23">
+        <v>1345.42</v>
+      </c>
+      <c r="AS23">
+        <v>1353.73</v>
+      </c>
+      <c r="AT23">
+        <v>910.9</v>
+      </c>
+      <c r="AU23">
+        <v>4704.25</v>
+      </c>
+      <c r="AV23">
+        <v>1136.3800000000001</v>
+      </c>
+      <c r="AW23">
+        <v>1354.02</v>
+      </c>
+      <c r="AX23">
+        <v>1488.43</v>
+      </c>
+      <c r="AY23">
+        <v>862.44</v>
+      </c>
+      <c r="AZ23">
+        <v>4841.2700000000004</v>
+      </c>
+      <c r="BA23">
+        <v>1206.24</v>
+      </c>
+      <c r="BB23">
+        <v>1478.56</v>
+      </c>
+      <c r="BC23">
+        <v>1687.73</v>
+      </c>
+      <c r="BD23">
+        <v>948.66</v>
+      </c>
+      <c r="BE23">
+        <v>5321.1900000000005</v>
+      </c>
+      <c r="BF23">
+        <v>1221.6600000000001</v>
+      </c>
+      <c r="BG23">
+        <v>1513.44</v>
+      </c>
+      <c r="BH23">
+        <v>1688.63</v>
+      </c>
+      <c r="BI23">
+        <v>920.75</v>
+      </c>
+      <c r="BJ23">
+        <v>5344.4800000000005</v>
+      </c>
+      <c r="BK23">
+        <v>1408.5</v>
+      </c>
+      <c r="BL23">
+        <v>2039.43</v>
+      </c>
+      <c r="BM23">
+        <v>1561.29</v>
+      </c>
+      <c r="BN23">
+        <v>800.19</v>
+      </c>
+      <c r="BO23">
+        <v>5809.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>7498.3099999999986</v>
+      </c>
+      <c r="D24">
+        <v>9344.35</v>
+      </c>
+      <c r="E24">
+        <v>12775.51</v>
+      </c>
+      <c r="F24">
+        <v>7564.67</v>
+      </c>
+      <c r="G24">
+        <v>37182.839999999997</v>
+      </c>
+      <c r="H24">
+        <v>810.72</v>
+      </c>
+      <c r="I24">
+        <v>929.38</v>
+      </c>
+      <c r="J24">
+        <v>1553.54</v>
+      </c>
+      <c r="K24">
+        <v>706.94</v>
+      </c>
+      <c r="L24">
+        <v>4000.58</v>
+      </c>
+      <c r="M24">
+        <v>556.91999999999996</v>
+      </c>
+      <c r="N24">
+        <v>661.49</v>
+      </c>
+      <c r="O24">
+        <v>952.81</v>
+      </c>
+      <c r="P24">
+        <v>681.79</v>
+      </c>
+      <c r="Q24">
+        <v>2853.0099999999998</v>
+      </c>
+      <c r="R24">
+        <v>628.83000000000004</v>
+      </c>
+      <c r="S24">
+        <v>730.99</v>
+      </c>
+      <c r="T24">
+        <v>1084.3800000000001</v>
+      </c>
+      <c r="U24">
+        <v>733.55</v>
+      </c>
+      <c r="V24">
+        <v>3177.75</v>
+      </c>
+      <c r="W24">
+        <v>608.76</v>
+      </c>
+      <c r="X24">
+        <v>722.25</v>
+      </c>
+      <c r="Y24">
+        <v>1302.6600000000001</v>
+      </c>
+      <c r="Z24">
+        <v>685.32</v>
+      </c>
+      <c r="AA24">
+        <v>3318.9900000000002</v>
+      </c>
+      <c r="AB24">
+        <v>533.20000000000005</v>
+      </c>
+      <c r="AC24">
+        <v>630.05999999999995</v>
+      </c>
+      <c r="AD24">
+        <v>872.39</v>
+      </c>
+      <c r="AE24">
+        <v>575.15</v>
+      </c>
+      <c r="AF24">
+        <v>2610.8000000000002</v>
+      </c>
+      <c r="AG24">
+        <v>515.49</v>
+      </c>
+      <c r="AH24">
+        <v>625.21</v>
+      </c>
+      <c r="AI24">
+        <v>994.98</v>
+      </c>
+      <c r="AJ24">
+        <v>469.41</v>
+      </c>
+      <c r="AK24">
+        <v>2605.09</v>
+      </c>
+      <c r="AL24">
+        <v>549.71</v>
+      </c>
+      <c r="AM24">
+        <v>663.72</v>
+      </c>
+      <c r="AN24">
+        <v>936.49</v>
+      </c>
+      <c r="AO24">
+        <v>506.49</v>
+      </c>
+      <c r="AP24">
+        <v>2656.41</v>
+      </c>
+      <c r="AQ24">
+        <v>590.41999999999996</v>
+      </c>
+      <c r="AR24">
+        <v>728.8</v>
+      </c>
+      <c r="AS24">
+        <v>969.39</v>
+      </c>
+      <c r="AT24">
+        <v>607.97</v>
+      </c>
+      <c r="AU24">
+        <v>2896.58</v>
+      </c>
+      <c r="AV24">
+        <v>580.11</v>
+      </c>
+      <c r="AW24">
+        <v>696.58</v>
+      </c>
+      <c r="AX24">
+        <v>1029.3800000000001</v>
+      </c>
+      <c r="AY24">
+        <v>575.98</v>
+      </c>
+      <c r="AZ24">
+        <v>2882.05</v>
+      </c>
+      <c r="BA24">
+        <v>638.09</v>
+      </c>
+      <c r="BB24">
+        <v>767.2</v>
+      </c>
+      <c r="BC24">
+        <v>1022.82</v>
+      </c>
+      <c r="BD24">
+        <v>681.2</v>
+      </c>
+      <c r="BE24">
+        <v>3109.3100000000004</v>
+      </c>
+      <c r="BF24">
+        <v>715.94</v>
+      </c>
+      <c r="BG24">
+        <v>884.35</v>
+      </c>
+      <c r="BH24">
+        <v>1054.26</v>
+      </c>
+      <c r="BI24">
+        <v>696.81</v>
+      </c>
+      <c r="BJ24">
+        <v>3351.36</v>
+      </c>
+      <c r="BK24">
+        <v>770.12</v>
+      </c>
+      <c r="BL24">
+        <v>1304.32</v>
+      </c>
+      <c r="BM24">
+        <v>1002.41</v>
+      </c>
+      <c r="BN24">
+        <v>644.05999999999995</v>
+      </c>
+      <c r="BO24">
+        <v>3720.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>11277.44</v>
+      </c>
+      <c r="D25">
+        <v>14030.91</v>
+      </c>
+      <c r="E25">
+        <v>11822.690000000002</v>
+      </c>
+      <c r="F25">
+        <v>7941.04</v>
+      </c>
+      <c r="G25">
+        <v>45072.08</v>
+      </c>
+      <c r="H25">
+        <v>1220.58</v>
+      </c>
+      <c r="I25">
+        <v>1519.6</v>
+      </c>
+      <c r="J25">
+        <v>1365.12</v>
+      </c>
+      <c r="K25">
+        <v>622.53</v>
+      </c>
+      <c r="L25">
+        <v>4727.829999999999</v>
+      </c>
+      <c r="M25">
+        <v>801.71</v>
+      </c>
+      <c r="N25">
+        <v>1028.1500000000001</v>
+      </c>
+      <c r="O25">
+        <v>905.5</v>
+      </c>
+      <c r="P25">
+        <v>667.13</v>
+      </c>
+      <c r="Q25">
+        <v>3402.4900000000002</v>
+      </c>
+      <c r="R25">
+        <v>842.38</v>
+      </c>
+      <c r="S25">
+        <v>1061.69</v>
+      </c>
+      <c r="T25">
+        <v>996.77</v>
+      </c>
+      <c r="U25">
+        <v>730.27</v>
+      </c>
+      <c r="V25">
+        <v>3631.11</v>
+      </c>
+      <c r="W25">
+        <v>884.85</v>
+      </c>
+      <c r="X25">
+        <v>1118.93</v>
+      </c>
+      <c r="Y25">
+        <v>1020.77</v>
+      </c>
+      <c r="Z25">
+        <v>658.46</v>
+      </c>
+      <c r="AA25">
+        <v>3683.01</v>
+      </c>
+      <c r="AB25">
+        <v>862.49</v>
+      </c>
+      <c r="AC25">
+        <v>1054.45</v>
+      </c>
+      <c r="AD25">
+        <v>890.19</v>
+      </c>
+      <c r="AE25">
+        <v>630.96</v>
+      </c>
+      <c r="AF25">
+        <v>3438.09</v>
+      </c>
+      <c r="AG25">
+        <v>761.19</v>
+      </c>
+      <c r="AH25">
+        <v>929.17</v>
+      </c>
+      <c r="AI25">
+        <v>866.26</v>
+      </c>
+      <c r="AJ25">
+        <v>537.88</v>
+      </c>
+      <c r="AK25">
+        <v>3094.5</v>
+      </c>
+      <c r="AL25">
+        <v>873.82</v>
+      </c>
+      <c r="AM25">
+        <v>1108.48</v>
+      </c>
+      <c r="AN25">
+        <v>1052.93</v>
+      </c>
+      <c r="AO25">
+        <v>613.72</v>
+      </c>
+      <c r="AP25">
+        <v>3648.9500000000007</v>
+      </c>
+      <c r="AQ25">
+        <v>984.31</v>
+      </c>
+      <c r="AR25">
+        <v>1222.1600000000001</v>
+      </c>
+      <c r="AS25">
+        <v>916.51</v>
+      </c>
+      <c r="AT25">
+        <v>688.97</v>
+      </c>
+      <c r="AU25">
+        <v>3811.9500000000007</v>
+      </c>
+      <c r="AV25">
+        <v>858.78</v>
+      </c>
+      <c r="AW25">
+        <v>1064.53</v>
+      </c>
+      <c r="AX25">
+        <v>843.67</v>
+      </c>
+      <c r="AY25">
+        <v>693.2</v>
+      </c>
+      <c r="AZ25">
+        <v>3460.1800000000003</v>
+      </c>
+      <c r="BA25">
+        <v>982.19</v>
+      </c>
+      <c r="BB25">
+        <v>1220.06</v>
+      </c>
+      <c r="BC25">
+        <v>1020.6</v>
+      </c>
+      <c r="BD25">
+        <v>687.83</v>
+      </c>
+      <c r="BE25">
+        <v>3910.68</v>
+      </c>
+      <c r="BF25">
+        <v>1088.53</v>
+      </c>
+      <c r="BG25">
+        <v>1286.6199999999999</v>
+      </c>
+      <c r="BH25">
+        <v>999.42</v>
+      </c>
+      <c r="BI25">
+        <v>715.24</v>
+      </c>
+      <c r="BJ25">
+        <v>4089.8099999999995</v>
+      </c>
+      <c r="BK25">
+        <v>1116.6099999999999</v>
+      </c>
+      <c r="BL25">
+        <v>1417.07</v>
+      </c>
+      <c r="BM25">
+        <v>944.95</v>
+      </c>
+      <c r="BN25">
+        <v>694.85</v>
+      </c>
+      <c r="BO25">
+        <v>4173.4800000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>37931.25</v>
+      </c>
+      <c r="D26">
+        <v>45540.41</v>
+      </c>
+      <c r="E26">
+        <v>44864.53</v>
+      </c>
+      <c r="F26">
+        <v>8412.02</v>
+      </c>
+      <c r="G26">
+        <v>136748.21000000002</v>
+      </c>
+      <c r="H26">
+        <v>3846.83</v>
+      </c>
+      <c r="I26">
+        <v>4537.6499999999996</v>
+      </c>
+      <c r="J26">
+        <v>4232.33</v>
+      </c>
+      <c r="K26">
+        <v>684.05</v>
+      </c>
+      <c r="L26">
+        <v>13300.859999999999</v>
+      </c>
+      <c r="M26">
+        <v>2952.79</v>
+      </c>
+      <c r="N26">
+        <v>3525.91</v>
+      </c>
+      <c r="O26">
+        <v>4158</v>
+      </c>
+      <c r="P26">
+        <v>688</v>
+      </c>
+      <c r="Q26">
+        <v>11324.7</v>
+      </c>
+      <c r="R26">
+        <v>3042.47</v>
+      </c>
+      <c r="S26">
+        <v>3701.91</v>
+      </c>
+      <c r="T26">
+        <v>3579.3</v>
+      </c>
+      <c r="U26">
+        <v>778.5</v>
+      </c>
+      <c r="V26">
+        <v>11102.18</v>
+      </c>
+      <c r="W26">
+        <v>3064.14</v>
+      </c>
+      <c r="X26">
+        <v>3736.15</v>
+      </c>
+      <c r="Y26">
+        <v>3508.88</v>
+      </c>
+      <c r="Z26">
+        <v>705.55</v>
+      </c>
+      <c r="AA26">
+        <v>11014.72</v>
+      </c>
+      <c r="AB26">
+        <v>2834.73</v>
+      </c>
+      <c r="AC26">
+        <v>3423.52</v>
+      </c>
+      <c r="AD26">
+        <v>3388.83</v>
+      </c>
+      <c r="AE26">
+        <v>696.44</v>
+      </c>
+      <c r="AF26">
+        <v>10343.52</v>
+      </c>
+      <c r="AG26">
+        <v>2776.9</v>
+      </c>
+      <c r="AH26">
+        <v>3331.26</v>
+      </c>
+      <c r="AI26">
+        <v>3469.78</v>
+      </c>
+      <c r="AJ26">
+        <v>574.91</v>
+      </c>
+      <c r="AK26">
+        <v>10152.85</v>
+      </c>
+      <c r="AL26">
+        <v>3138.21</v>
+      </c>
+      <c r="AM26">
+        <v>3641.89</v>
+      </c>
+      <c r="AN26">
+        <v>3913.53</v>
+      </c>
+      <c r="AO26">
+        <v>713</v>
+      </c>
+      <c r="AP26">
+        <v>11406.630000000001</v>
+      </c>
+      <c r="AQ26">
+        <v>3362.76</v>
+      </c>
+      <c r="AR26">
+        <v>4101.3100000000004</v>
+      </c>
+      <c r="AS26">
+        <v>3894.44</v>
+      </c>
+      <c r="AT26">
+        <v>833.62</v>
+      </c>
+      <c r="AU26">
+        <v>12192.130000000001</v>
+      </c>
+      <c r="AV26">
+        <v>2785.75</v>
+      </c>
+      <c r="AW26">
+        <v>3328.49</v>
+      </c>
+      <c r="AX26">
+        <v>3501.67</v>
+      </c>
+      <c r="AY26">
+        <v>663.45</v>
+      </c>
+      <c r="AZ26">
+        <v>10279.36</v>
+      </c>
+      <c r="BA26">
+        <v>3369.03</v>
+      </c>
+      <c r="BB26">
+        <v>4025.16</v>
+      </c>
+      <c r="BC26">
+        <v>3918.66</v>
+      </c>
+      <c r="BD26">
+        <v>822.25</v>
+      </c>
+      <c r="BE26">
+        <v>12135.1</v>
+      </c>
+      <c r="BF26">
+        <v>3334.34</v>
+      </c>
+      <c r="BG26">
+        <v>3941</v>
+      </c>
+      <c r="BH26">
+        <v>3400.91</v>
+      </c>
+      <c r="BI26">
+        <v>725.37</v>
+      </c>
+      <c r="BJ26">
+        <v>11401.62</v>
+      </c>
+      <c r="BK26">
+        <v>3423.3</v>
+      </c>
+      <c r="BL26">
+        <v>4246.16</v>
+      </c>
+      <c r="BM26">
+        <v>3898.2</v>
+      </c>
+      <c r="BN26">
+        <v>526.88</v>
+      </c>
+      <c r="BO26">
+        <v>12094.539999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="E27">
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1.7900000000000005</v>
+      </c>
+      <c r="H27">
+        <v>0.03</v>
+      </c>
+      <c r="I27">
+        <v>0.03</v>
+      </c>
+      <c r="J27">
+        <v>0.17</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0.23</v>
+      </c>
+      <c r="M27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O27">
+        <v>0.35</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0.91</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0.06</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0.06</v>
+      </c>
+      <c r="W27">
+        <v>0.04</v>
+      </c>
+      <c r="X27">
+        <v>0.04</v>
+      </c>
+      <c r="Y27">
+        <v>0.03</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0.11</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0.05</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0.05</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0.01</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0.01</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0.01</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0.01</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0.09</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0.09</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0.03</v>
+      </c>
+      <c r="BB27">
+        <v>0.03</v>
+      </c>
+      <c r="BC27">
+        <v>0.02</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0.08</v>
+      </c>
+      <c r="BF27">
+        <v>0.05</v>
+      </c>
+      <c r="BG27">
+        <v>0.05</v>
+      </c>
+      <c r="BH27">
+        <v>0.02</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="BK27">
+        <v>0.03</v>
+      </c>
+      <c r="BL27">
+        <v>0.03</v>
+      </c>
+      <c r="BM27">
+        <v>0.06</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>583.97</v>
+      </c>
+      <c r="D28">
+        <v>737.16</v>
+      </c>
+      <c r="E28">
+        <v>3083.26</v>
+      </c>
+      <c r="F28">
+        <v>3.64</v>
+      </c>
+      <c r="G28">
+        <v>4408.03</v>
+      </c>
+      <c r="H28">
+        <v>59.85</v>
+      </c>
+      <c r="I28">
+        <v>75.349999999999994</v>
+      </c>
+      <c r="J28">
+        <v>311.86</v>
+      </c>
+      <c r="K28">
+        <v>0.13</v>
+      </c>
+      <c r="L28">
+        <v>447.19</v>
+      </c>
+      <c r="M28">
+        <v>46.77</v>
+      </c>
+      <c r="N28">
+        <v>57.65</v>
+      </c>
+      <c r="O28">
+        <v>269.49</v>
+      </c>
+      <c r="P28">
+        <v>0.3</v>
+      </c>
+      <c r="Q28">
+        <v>374.21000000000004</v>
+      </c>
+      <c r="R28">
+        <v>60.66</v>
+      </c>
+      <c r="S28">
+        <v>71.05</v>
+      </c>
+      <c r="T28">
+        <v>261.99</v>
+      </c>
+      <c r="U28">
+        <v>0.18</v>
+      </c>
+      <c r="V28">
+        <v>393.88</v>
+      </c>
+      <c r="W28">
+        <v>44.66</v>
+      </c>
+      <c r="X28">
+        <v>59.6</v>
+      </c>
+      <c r="Y28">
+        <v>234.4</v>
+      </c>
+      <c r="Z28">
+        <v>0.1</v>
+      </c>
+      <c r="AA28">
+        <v>338.76</v>
+      </c>
+      <c r="AB28">
+        <v>40.229999999999997</v>
+      </c>
+      <c r="AC28">
+        <v>53.28</v>
+      </c>
+      <c r="AD28">
+        <v>226.61</v>
+      </c>
+      <c r="AE28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF28">
+        <v>320.26</v>
+      </c>
+      <c r="AG28">
+        <v>44.14</v>
+      </c>
+      <c r="AH28">
+        <v>55.44</v>
+      </c>
+      <c r="AI28">
+        <v>205.56</v>
+      </c>
+      <c r="AJ28">
+        <v>0.08</v>
+      </c>
+      <c r="AK28">
+        <v>305.21999999999997</v>
+      </c>
+      <c r="AL28">
+        <v>46.52</v>
+      </c>
+      <c r="AM28">
+        <v>61.09</v>
+      </c>
+      <c r="AN28">
+        <v>260.94</v>
+      </c>
+      <c r="AO28">
+        <v>0.19</v>
+      </c>
+      <c r="AP28">
+        <v>368.74</v>
+      </c>
+      <c r="AQ28">
+        <v>48.04</v>
+      </c>
+      <c r="AR28">
+        <v>63.4</v>
+      </c>
+      <c r="AS28">
+        <v>236.13</v>
+      </c>
+      <c r="AT28">
+        <v>0.49</v>
+      </c>
+      <c r="AU28">
+        <v>348.06</v>
+      </c>
+      <c r="AV28">
+        <v>45.51</v>
+      </c>
+      <c r="AW28">
+        <v>55.35</v>
+      </c>
+      <c r="AX28">
+        <v>229.98</v>
+      </c>
+      <c r="AY28">
+        <v>1.5</v>
+      </c>
+      <c r="AZ28">
+        <v>332.34</v>
+      </c>
+      <c r="BA28">
+        <v>50.54</v>
+      </c>
+      <c r="BB28">
+        <v>61.1</v>
+      </c>
+      <c r="BC28">
+        <v>296.54000000000002</v>
+      </c>
+      <c r="BD28">
+        <v>0.25</v>
+      </c>
+      <c r="BE28">
+        <v>408.43</v>
+      </c>
+      <c r="BF28">
+        <v>47.45</v>
+      </c>
+      <c r="BG28">
+        <v>63.43</v>
+      </c>
+      <c r="BH28">
+        <v>274.54000000000002</v>
+      </c>
+      <c r="BI28">
+        <v>0.08</v>
+      </c>
+      <c r="BJ28">
+        <v>385.5</v>
+      </c>
+      <c r="BK28">
+        <v>49.6</v>
+      </c>
+      <c r="BL28">
+        <v>60.42</v>
+      </c>
+      <c r="BM28">
+        <v>275.22000000000003</v>
+      </c>
+      <c r="BN28">
+        <v>0.2</v>
+      </c>
+      <c r="BO28">
+        <v>385.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>98728.819999999992</v>
+      </c>
+      <c r="D29">
+        <v>113769.17</v>
+      </c>
+      <c r="E29">
+        <v>121414.53</v>
+      </c>
+      <c r="F29">
+        <v>25942.18</v>
+      </c>
+      <c r="G29">
+        <v>359854.69999999995</v>
+      </c>
+      <c r="H29">
+        <v>10263.18</v>
+      </c>
+      <c r="I29">
+        <v>11729.43</v>
+      </c>
+      <c r="J29">
+        <v>13430.36</v>
+      </c>
+      <c r="K29">
+        <v>2247.84</v>
+      </c>
+      <c r="L29">
+        <v>37670.81</v>
+      </c>
+      <c r="M29">
+        <v>7607.26</v>
+      </c>
+      <c r="N29">
+        <v>8710.9699999999993</v>
+      </c>
+      <c r="O29">
+        <v>8462.4599999999991</v>
+      </c>
+      <c r="P29">
+        <v>2073.13</v>
+      </c>
+      <c r="Q29">
+        <v>26853.82</v>
+      </c>
+      <c r="R29">
+        <v>7929.96</v>
+      </c>
+      <c r="S29">
+        <v>9213.1299999999992</v>
+      </c>
+      <c r="T29">
+        <v>9682.98</v>
+      </c>
+      <c r="U29">
+        <v>2054.79</v>
+      </c>
+      <c r="V29">
+        <v>28880.86</v>
+      </c>
+      <c r="W29">
+        <v>7538.29</v>
+      </c>
+      <c r="X29">
+        <v>8629.8799999999992</v>
+      </c>
+      <c r="Y29">
+        <v>10835.14</v>
+      </c>
+      <c r="Z29">
+        <v>1966.59</v>
+      </c>
+      <c r="AA29">
+        <v>28969.899999999998</v>
+      </c>
+      <c r="AB29">
+        <v>7111.78</v>
+      </c>
+      <c r="AC29">
+        <v>8304.66</v>
+      </c>
+      <c r="AD29">
+        <v>8938.4599999999991</v>
+      </c>
+      <c r="AE29">
+        <v>2011.74</v>
+      </c>
+      <c r="AF29">
+        <v>26366.639999999999</v>
+      </c>
+      <c r="AG29">
+        <v>7535.79</v>
+      </c>
+      <c r="AH29">
+        <v>8627.9699999999993</v>
+      </c>
+      <c r="AI29">
+        <v>8214</v>
+      </c>
+      <c r="AJ29">
+        <v>1990.85</v>
+      </c>
+      <c r="AK29">
+        <v>26368.609999999997</v>
+      </c>
+      <c r="AL29">
+        <v>8048.03</v>
+      </c>
+      <c r="AM29">
+        <v>9107.5</v>
+      </c>
+      <c r="AN29">
+        <v>11664.76</v>
+      </c>
+      <c r="AO29">
+        <v>2209.7600000000002</v>
+      </c>
+      <c r="AP29">
+        <v>31030.050000000003</v>
+      </c>
+      <c r="AQ29">
+        <v>8313.7099999999991</v>
+      </c>
+      <c r="AR29">
+        <v>9617.2999999999993</v>
+      </c>
+      <c r="AS29">
+        <v>9602.31</v>
+      </c>
+      <c r="AT29">
+        <v>2414.8200000000002</v>
+      </c>
+      <c r="AU29">
+        <v>29948.14</v>
+      </c>
+      <c r="AV29">
+        <v>8342.31</v>
+      </c>
+      <c r="AW29">
+        <v>9465.08</v>
+      </c>
+      <c r="AX29">
+        <v>9386.69</v>
+      </c>
+      <c r="AY29">
+        <v>2066.34</v>
+      </c>
+      <c r="AZ29">
+        <v>29260.420000000002</v>
+      </c>
+      <c r="BA29">
+        <v>8584.7800000000007</v>
+      </c>
+      <c r="BB29">
+        <v>9755.4699999999993</v>
+      </c>
+      <c r="BC29">
+        <v>11639.01</v>
+      </c>
+      <c r="BD29">
+        <v>2356.1</v>
+      </c>
+      <c r="BE29">
+        <v>32335.360000000001</v>
+      </c>
+      <c r="BF29">
+        <v>8396.01</v>
+      </c>
+      <c r="BG29">
+        <v>9682.19</v>
+      </c>
+      <c r="BH29">
+        <v>10195.24</v>
+      </c>
+      <c r="BI29">
+        <v>2363.13</v>
+      </c>
+      <c r="BJ29">
+        <v>30636.570000000003</v>
+      </c>
+      <c r="BK29">
+        <v>9057.7199999999993</v>
+      </c>
+      <c r="BL29">
+        <v>10925.59</v>
+      </c>
+      <c r="BM29">
+        <v>9363.1200000000008</v>
+      </c>
+      <c r="BN29">
+        <v>2187.09</v>
+      </c>
+      <c r="BO29">
+        <v>31533.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>36905.130000000012</v>
+      </c>
+      <c r="D30">
+        <v>45314.229999999996</v>
+      </c>
+      <c r="E30">
+        <v>59550.200000000004</v>
+      </c>
+      <c r="F30">
+        <v>17794.239999999998</v>
+      </c>
+      <c r="G30">
+        <v>159563.80000000002</v>
+      </c>
+      <c r="H30">
+        <v>3896.36</v>
+      </c>
+      <c r="I30">
+        <v>4715.34</v>
+      </c>
+      <c r="J30">
+        <v>5791.48</v>
+      </c>
+      <c r="K30">
+        <v>1574.97</v>
+      </c>
+      <c r="L30">
+        <v>15978.15</v>
+      </c>
+      <c r="M30">
+        <v>2828.84</v>
+      </c>
+      <c r="N30">
+        <v>3440.89</v>
+      </c>
+      <c r="O30">
+        <v>4392.13</v>
+      </c>
+      <c r="P30">
+        <v>1227.52</v>
+      </c>
+      <c r="Q30">
+        <v>11889.380000000001</v>
+      </c>
+      <c r="R30">
+        <v>2832.65</v>
+      </c>
+      <c r="S30">
+        <v>3501.02</v>
+      </c>
+      <c r="T30">
+        <v>4513.95</v>
+      </c>
+      <c r="U30">
+        <v>1541.36</v>
+      </c>
+      <c r="V30">
+        <v>12388.98</v>
+      </c>
+      <c r="W30">
+        <v>2871.8</v>
+      </c>
+      <c r="X30">
+        <v>3557.23</v>
+      </c>
+      <c r="Y30">
+        <v>4948.18</v>
+      </c>
+      <c r="Z30">
+        <v>1647.32</v>
+      </c>
+      <c r="AA30">
+        <v>13024.53</v>
+      </c>
+      <c r="AB30">
+        <v>2797.93</v>
+      </c>
+      <c r="AC30">
+        <v>3416.5</v>
+      </c>
+      <c r="AD30">
+        <v>4675.6899999999996</v>
+      </c>
+      <c r="AE30">
+        <v>1454.02</v>
+      </c>
+      <c r="AF30">
+        <v>12344.14</v>
+      </c>
+      <c r="AG30">
+        <v>2874.2</v>
+      </c>
+      <c r="AH30">
+        <v>3556.86</v>
+      </c>
+      <c r="AI30">
+        <v>4652.5200000000004</v>
+      </c>
+      <c r="AJ30">
+        <v>1558.12</v>
+      </c>
+      <c r="AK30">
+        <v>12641.7</v>
+      </c>
+      <c r="AL30">
+        <v>2922.4</v>
+      </c>
+      <c r="AM30">
+        <v>3634.38</v>
+      </c>
+      <c r="AN30">
+        <v>5073.53</v>
+      </c>
+      <c r="AO30">
+        <v>1451.12</v>
+      </c>
+      <c r="AP30">
+        <v>13081.43</v>
+      </c>
+      <c r="AQ30">
+        <v>2992.9</v>
+      </c>
+      <c r="AR30">
+        <v>3692.27</v>
+      </c>
+      <c r="AS30">
+        <v>5524.34</v>
+      </c>
+      <c r="AT30">
+        <v>1512.66</v>
+      </c>
+      <c r="AU30">
+        <v>13722.17</v>
+      </c>
+      <c r="AV30">
+        <v>2947.4</v>
+      </c>
+      <c r="AW30">
+        <v>3651.44</v>
+      </c>
+      <c r="AX30">
+        <v>4551.2299999999996</v>
+      </c>
+      <c r="AY30">
+        <v>1376.17</v>
+      </c>
+      <c r="AZ30">
+        <v>12526.24</v>
+      </c>
+      <c r="BA30">
+        <v>3328.73</v>
+      </c>
+      <c r="BB30">
+        <v>4063.13</v>
+      </c>
+      <c r="BC30">
+        <v>5521.01</v>
+      </c>
+      <c r="BD30">
+        <v>1439.7</v>
+      </c>
+      <c r="BE30">
+        <v>14352.570000000002</v>
+      </c>
+      <c r="BF30">
+        <v>3259.05</v>
+      </c>
+      <c r="BG30">
+        <v>3907.15</v>
+      </c>
+      <c r="BH30">
+        <v>5236.5600000000004</v>
+      </c>
+      <c r="BI30">
+        <v>1714.31</v>
+      </c>
+      <c r="BJ30">
+        <v>14117.070000000002</v>
+      </c>
+      <c r="BK30">
+        <v>3352.87</v>
+      </c>
+      <c r="BL30">
+        <v>4178.0200000000004</v>
+      </c>
+      <c r="BM30">
+        <v>4669.58</v>
+      </c>
+      <c r="BN30">
+        <v>1296.97</v>
+      </c>
+      <c r="BO30">
+        <v>13497.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>2073.48</v>
+      </c>
+      <c r="D31">
+        <v>2609.3599999999997</v>
+      </c>
+      <c r="E31">
+        <v>2417.31</v>
+      </c>
+      <c r="F31">
+        <v>45.78</v>
+      </c>
+      <c r="G31">
+        <v>7145.93</v>
+      </c>
+      <c r="H31">
+        <v>225.39</v>
+      </c>
+      <c r="I31">
+        <v>282.75</v>
+      </c>
+      <c r="J31">
+        <v>252.25</v>
+      </c>
+      <c r="K31">
+        <v>4.38</v>
+      </c>
+      <c r="L31">
+        <v>764.77</v>
+      </c>
+      <c r="M31">
+        <v>146.32</v>
+      </c>
+      <c r="N31">
+        <v>190.01</v>
+      </c>
+      <c r="O31">
+        <v>178.83</v>
+      </c>
+      <c r="P31">
+        <v>3.99</v>
+      </c>
+      <c r="Q31">
+        <v>519.15</v>
+      </c>
+      <c r="R31">
+        <v>156.84</v>
+      </c>
+      <c r="S31">
+        <v>203.52</v>
+      </c>
+      <c r="T31">
+        <v>181.11</v>
+      </c>
+      <c r="U31">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="V31">
+        <v>546.11</v>
+      </c>
+      <c r="W31">
+        <v>167.16</v>
+      </c>
+      <c r="X31">
+        <v>207.32</v>
+      </c>
+      <c r="Y31">
+        <v>215.75</v>
+      </c>
+      <c r="Z31">
+        <v>2.82</v>
+      </c>
+      <c r="AA31">
+        <v>593.05000000000007</v>
+      </c>
+      <c r="AB31">
+        <v>147.51</v>
+      </c>
+      <c r="AC31">
+        <v>184.06</v>
+      </c>
+      <c r="AD31">
+        <v>196.81</v>
+      </c>
+      <c r="AE31">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AF31">
+        <v>530.70000000000005</v>
+      </c>
+      <c r="AG31">
+        <v>150.13</v>
+      </c>
+      <c r="AH31">
+        <v>191.29</v>
+      </c>
+      <c r="AI31">
+        <v>174.43</v>
+      </c>
+      <c r="AJ31">
+        <v>3.32</v>
+      </c>
+      <c r="AK31">
+        <v>519.16999999999996</v>
+      </c>
+      <c r="AL31">
+        <v>154.61000000000001</v>
+      </c>
+      <c r="AM31">
+        <v>191.97</v>
+      </c>
+      <c r="AN31">
+        <v>208.37</v>
+      </c>
+      <c r="AO31">
+        <v>3.88</v>
+      </c>
+      <c r="AP31">
+        <v>558.83000000000004</v>
+      </c>
+      <c r="AQ31">
+        <v>163.13999999999999</v>
+      </c>
+      <c r="AR31">
+        <v>207.59</v>
+      </c>
+      <c r="AS31">
+        <v>185.6</v>
+      </c>
+      <c r="AT31">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="AU31">
+        <v>560.44000000000005</v>
+      </c>
+      <c r="AV31">
+        <v>177.55</v>
+      </c>
+      <c r="AW31">
+        <v>219.41</v>
+      </c>
+      <c r="AX31">
+        <v>178.07</v>
+      </c>
+      <c r="AY31">
+        <v>3.28</v>
+      </c>
+      <c r="AZ31">
+        <v>578.30999999999995</v>
+      </c>
+      <c r="BA31">
+        <v>214.98</v>
+      </c>
+      <c r="BB31">
+        <v>275.19</v>
+      </c>
+      <c r="BC31">
+        <v>199.54</v>
+      </c>
+      <c r="BD31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="BE31">
+        <v>694.81999999999994</v>
+      </c>
+      <c r="BF31">
+        <v>184.79</v>
+      </c>
+      <c r="BG31">
+        <v>227.54</v>
+      </c>
+      <c r="BH31">
+        <v>183.9</v>
+      </c>
+      <c r="BI31">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="BJ31">
+        <v>600.54</v>
+      </c>
+      <c r="BK31">
+        <v>185.06</v>
+      </c>
+      <c r="BL31">
+        <v>228.71</v>
+      </c>
+      <c r="BM31">
+        <v>262.64999999999998</v>
+      </c>
+      <c r="BN31">
+        <v>3.62</v>
+      </c>
+      <c r="BO31">
+        <v>680.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>6.669999999999999</v>
+      </c>
+      <c r="D32">
+        <v>8.8899999999999988</v>
+      </c>
+      <c r="E32">
+        <v>5.24</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>20.799999999999997</v>
+      </c>
+      <c r="H32">
+        <v>0.18</v>
+      </c>
+      <c r="I32">
+        <v>0.22</v>
+      </c>
+      <c r="J32">
+        <v>0.81</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1.21</v>
+      </c>
+      <c r="M32">
+        <v>0.5</v>
+      </c>
+      <c r="N32">
+        <v>0.52</v>
+      </c>
+      <c r="O32">
+        <v>0.25</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1.27</v>
+      </c>
+      <c r="R32">
+        <v>0.17</v>
+      </c>
+      <c r="S32">
+        <v>0.49</v>
+      </c>
+      <c r="T32">
+        <v>0.13</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0.79</v>
+      </c>
+      <c r="W32">
+        <v>0.49</v>
+      </c>
+      <c r="X32">
+        <v>0.52</v>
+      </c>
+      <c r="Y32">
+        <v>0.16</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>1.17</v>
+      </c>
+      <c r="AB32">
+        <v>0.4</v>
+      </c>
+      <c r="AC32">
+        <v>0.75</v>
+      </c>
+      <c r="AD32">
+        <v>0.76</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1.91</v>
+      </c>
+      <c r="AG32">
+        <v>0.52</v>
+      </c>
+      <c r="AH32">
+        <v>0.6</v>
+      </c>
+      <c r="AI32">
+        <v>0.26</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="AL32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AM32">
+        <v>0.84</v>
+      </c>
+      <c r="AN32">
+        <v>0.16</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1.2899999999999998</v>
+      </c>
+      <c r="AQ32">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AR32">
+        <v>2.39</v>
+      </c>
+      <c r="AS32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>0.3</v>
+      </c>
+      <c r="AW32">
+        <v>0.35</v>
+      </c>
+      <c r="AX32">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>1.74</v>
+      </c>
+      <c r="BA32">
+        <v>0.47</v>
+      </c>
+      <c r="BB32">
+        <v>0.62</v>
+      </c>
+      <c r="BC32">
+        <v>0.26</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="BF32">
+        <v>0.36</v>
+      </c>
+      <c r="BG32">
+        <v>0.39</v>
+      </c>
+      <c r="BH32">
+        <v>0.11</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0.86</v>
+      </c>
+      <c r="BK32">
+        <v>0.67</v>
+      </c>
+      <c r="BL32">
+        <v>1.2</v>
+      </c>
+      <c r="BM32">
+        <v>0.96</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>11763.460000000001</v>
+      </c>
+      <c r="D33">
+        <v>14884.75</v>
+      </c>
+      <c r="E33">
+        <v>6374.9899999999989</v>
+      </c>
+      <c r="F33">
+        <v>85.42000000000003</v>
+      </c>
+      <c r="G33">
+        <v>33108.620000000003</v>
+      </c>
+      <c r="H33">
+        <v>1157.1099999999999</v>
+      </c>
+      <c r="I33">
+        <v>1456.12</v>
+      </c>
+      <c r="J33">
+        <v>652.1</v>
+      </c>
+      <c r="K33">
+        <v>6.88</v>
+      </c>
+      <c r="L33">
+        <v>3272.2099999999996</v>
+      </c>
+      <c r="M33">
+        <v>935.92</v>
+      </c>
+      <c r="N33">
+        <v>1208.98</v>
+      </c>
+      <c r="O33">
+        <v>442.69</v>
+      </c>
+      <c r="P33">
+        <v>6.19</v>
+      </c>
+      <c r="Q33">
+        <v>2593.7800000000002</v>
+      </c>
+      <c r="R33">
+        <v>925.4</v>
+      </c>
+      <c r="S33">
+        <v>1181.24</v>
+      </c>
+      <c r="T33">
+        <v>505.18</v>
+      </c>
+      <c r="U33">
+        <v>5.87</v>
+      </c>
+      <c r="V33">
+        <v>2617.6899999999996</v>
+      </c>
+      <c r="W33">
+        <v>896.24</v>
+      </c>
+      <c r="X33">
+        <v>1100.54</v>
+      </c>
+      <c r="Y33">
+        <v>491.87</v>
+      </c>
+      <c r="Z33">
+        <v>3.98</v>
+      </c>
+      <c r="AA33">
+        <v>2492.63</v>
+      </c>
+      <c r="AB33">
+        <v>892.9</v>
+      </c>
+      <c r="AC33">
+        <v>1086.78</v>
+      </c>
+      <c r="AD33">
+        <v>525.6</v>
+      </c>
+      <c r="AE33">
+        <v>6.05</v>
+      </c>
+      <c r="AF33">
+        <v>2511.33</v>
+      </c>
+      <c r="AG33">
+        <v>944.2</v>
+      </c>
+      <c r="AH33">
+        <v>1219.98</v>
+      </c>
+      <c r="AI33">
+        <v>506.41</v>
+      </c>
+      <c r="AJ33">
+        <v>4.45</v>
+      </c>
+      <c r="AK33">
+        <v>2675.04</v>
+      </c>
+      <c r="AL33">
+        <v>993.26</v>
+      </c>
+      <c r="AM33">
+        <v>1275.31</v>
+      </c>
+      <c r="AN33">
+        <v>624.08000000000004</v>
+      </c>
+      <c r="AO33">
+        <v>3.34</v>
+      </c>
+      <c r="AP33">
+        <v>2895.99</v>
+      </c>
+      <c r="AQ33">
+        <v>960.1</v>
+      </c>
+      <c r="AR33">
+        <v>1213.76</v>
+      </c>
+      <c r="AS33">
+        <v>583.45000000000005</v>
+      </c>
+      <c r="AT33">
+        <v>5.98</v>
+      </c>
+      <c r="AU33">
+        <v>2763.2900000000004</v>
+      </c>
+      <c r="AV33">
+        <v>928.58</v>
+      </c>
+      <c r="AW33">
+        <v>1183.93</v>
+      </c>
+      <c r="AX33">
+        <v>455.94</v>
+      </c>
+      <c r="AY33">
+        <v>6.6</v>
+      </c>
+      <c r="AZ33">
+        <v>2575.0500000000002</v>
+      </c>
+      <c r="BA33">
+        <v>1066.8499999999999</v>
+      </c>
+      <c r="BB33">
+        <v>1380.49</v>
+      </c>
+      <c r="BC33">
+        <v>522.98</v>
+      </c>
+      <c r="BD33">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="BE33">
+        <v>2988.7400000000002</v>
+      </c>
+      <c r="BF33">
+        <v>1023.01</v>
+      </c>
+      <c r="BG33">
+        <v>1312.42</v>
+      </c>
+      <c r="BH33">
+        <v>545.98</v>
+      </c>
+      <c r="BI33">
+        <v>12.43</v>
+      </c>
+      <c r="BJ33">
+        <v>2893.84</v>
+      </c>
+      <c r="BK33">
+        <v>1039.8900000000001</v>
+      </c>
+      <c r="BL33">
+        <v>1265.2</v>
+      </c>
+      <c r="BM33">
+        <v>518.71</v>
+      </c>
+      <c r="BN33">
+        <v>5.23</v>
+      </c>
+      <c r="BO33">
+        <v>2829.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>34283.269999999997</v>
+      </c>
+      <c r="D34">
+        <v>46318.350000000006</v>
+      </c>
+      <c r="E34">
+        <v>41244.340000000004</v>
+      </c>
+      <c r="F34">
+        <v>9269.4699999999993</v>
+      </c>
+      <c r="G34">
+        <v>131115.43</v>
+      </c>
+      <c r="H34">
+        <v>3193.48</v>
+      </c>
+      <c r="I34">
+        <v>4066.49</v>
+      </c>
+      <c r="J34">
+        <v>4157.6899999999996</v>
+      </c>
+      <c r="K34">
+        <v>792.3</v>
+      </c>
+      <c r="L34">
+        <v>12209.96</v>
+      </c>
+      <c r="M34">
+        <v>2736.71</v>
+      </c>
+      <c r="N34">
+        <v>3529.8</v>
+      </c>
+      <c r="O34">
+        <v>2762.21</v>
+      </c>
+      <c r="P34">
+        <v>739.13</v>
+      </c>
+      <c r="Q34">
+        <v>9767.85</v>
+      </c>
+      <c r="R34">
+        <v>2674.76</v>
+      </c>
+      <c r="S34">
+        <v>3572.88</v>
+      </c>
+      <c r="T34">
+        <v>3245.77</v>
+      </c>
+      <c r="U34">
+        <v>724.51</v>
+      </c>
+      <c r="V34">
+        <v>10217.92</v>
+      </c>
+      <c r="W34">
+        <v>2753.61</v>
+      </c>
+      <c r="X34">
+        <v>3637.41</v>
+      </c>
+      <c r="Y34">
+        <v>3265.9</v>
+      </c>
+      <c r="Z34">
+        <v>832.89</v>
+      </c>
+      <c r="AA34">
+        <v>10489.81</v>
+      </c>
+      <c r="AB34">
+        <v>2719.72</v>
+      </c>
+      <c r="AC34">
+        <v>3728.47</v>
+      </c>
+      <c r="AD34">
+        <v>3030.31</v>
+      </c>
+      <c r="AE34">
+        <v>702.25</v>
+      </c>
+      <c r="AF34">
+        <v>10180.75</v>
+      </c>
+      <c r="AG34">
+        <v>2840.13</v>
+      </c>
+      <c r="AH34">
+        <v>3932.74</v>
+      </c>
+      <c r="AI34">
+        <v>3382.94</v>
+      </c>
+      <c r="AJ34">
+        <v>867.76</v>
+      </c>
+      <c r="AK34">
+        <v>11023.57</v>
+      </c>
+      <c r="AL34">
+        <v>2754.58</v>
+      </c>
+      <c r="AM34">
+        <v>3891.47</v>
+      </c>
+      <c r="AN34">
+        <v>3671.48</v>
+      </c>
+      <c r="AO34">
+        <v>870.26</v>
+      </c>
+      <c r="AP34">
+        <v>11187.789999999999</v>
+      </c>
+      <c r="AQ34">
+        <v>2941.23</v>
+      </c>
+      <c r="AR34">
+        <v>3923.18</v>
+      </c>
+      <c r="AS34">
+        <v>3462.05</v>
+      </c>
+      <c r="AT34">
+        <v>769.35</v>
+      </c>
+      <c r="AU34">
+        <v>11095.81</v>
+      </c>
+      <c r="AV34">
+        <v>2797.99</v>
+      </c>
+      <c r="AW34">
+        <v>3707.16</v>
+      </c>
+      <c r="AX34">
+        <v>3653.33</v>
+      </c>
+      <c r="AY34">
+        <v>797.52</v>
+      </c>
+      <c r="AZ34">
+        <v>10956</v>
+      </c>
+      <c r="BA34">
+        <v>2873.93</v>
+      </c>
+      <c r="BB34">
+        <v>3832.43</v>
+      </c>
+      <c r="BC34">
+        <v>4018.62</v>
+      </c>
+      <c r="BD34">
+        <v>771.31</v>
+      </c>
+      <c r="BE34">
+        <v>11496.289999999999</v>
+      </c>
+      <c r="BF34">
+        <v>2845.11</v>
+      </c>
+      <c r="BG34">
+        <v>3930.95</v>
+      </c>
+      <c r="BH34">
+        <v>3244.8</v>
+      </c>
+      <c r="BI34">
+        <v>673.62</v>
+      </c>
+      <c r="BJ34">
+        <v>10694.480000000001</v>
+      </c>
+      <c r="BK34">
+        <v>3152.02</v>
+      </c>
+      <c r="BL34">
+        <v>4565.37</v>
+      </c>
+      <c r="BM34">
+        <v>3349.24</v>
+      </c>
+      <c r="BN34">
+        <v>728.57</v>
+      </c>
+      <c r="BO34">
+        <v>11795.199999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>363.65999999999997</v>
+      </c>
+      <c r="D35">
+        <v>553.29000000000008</v>
+      </c>
+      <c r="E35">
+        <v>1935.0500000000002</v>
+      </c>
+      <c r="F35">
+        <v>13.280000000000001</v>
+      </c>
+      <c r="G35">
+        <v>2865.2799999999997</v>
+      </c>
+      <c r="H35">
+        <v>35.36</v>
+      </c>
+      <c r="I35">
+        <v>54.12</v>
+      </c>
+      <c r="J35">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="K35">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L35">
+        <v>246.64999999999998</v>
+      </c>
+      <c r="M35">
+        <v>28.73</v>
+      </c>
+      <c r="N35">
+        <v>40.65</v>
+      </c>
+      <c r="O35">
+        <v>168.77</v>
+      </c>
+      <c r="P35">
+        <v>0.81</v>
+      </c>
+      <c r="Q35">
+        <v>238.96</v>
+      </c>
+      <c r="R35">
+        <v>28.57</v>
+      </c>
+      <c r="S35">
+        <v>42.92</v>
+      </c>
+      <c r="T35">
+        <v>171.01</v>
+      </c>
+      <c r="U35">
+        <v>0.79</v>
+      </c>
+      <c r="V35">
+        <v>243.29</v>
+      </c>
+      <c r="W35">
+        <v>28.73</v>
+      </c>
+      <c r="X35">
+        <v>42.17</v>
+      </c>
+      <c r="Y35">
+        <v>153.15</v>
+      </c>
+      <c r="Z35">
+        <v>0.59</v>
+      </c>
+      <c r="AA35">
+        <v>224.64000000000001</v>
+      </c>
+      <c r="AB35">
+        <v>28.32</v>
+      </c>
+      <c r="AC35">
+        <v>45</v>
+      </c>
+      <c r="AD35">
+        <v>159.93</v>
+      </c>
+      <c r="AE35">
+        <v>0.46</v>
+      </c>
+      <c r="AF35">
+        <v>233.71</v>
+      </c>
+      <c r="AG35">
+        <v>28.26</v>
+      </c>
+      <c r="AH35">
+        <v>44.92</v>
+      </c>
+      <c r="AI35">
+        <v>151.19</v>
+      </c>
+      <c r="AJ35">
+        <v>0.98</v>
+      </c>
+      <c r="AK35">
+        <v>225.35</v>
+      </c>
+      <c r="AL35">
+        <v>29.4</v>
+      </c>
+      <c r="AM35">
+        <v>46.53</v>
+      </c>
+      <c r="AN35">
+        <v>175.18</v>
+      </c>
+      <c r="AO35">
+        <v>0.59</v>
+      </c>
+      <c r="AP35">
+        <v>251.70000000000002</v>
+      </c>
+      <c r="AQ35">
+        <v>29.45</v>
+      </c>
+      <c r="AR35">
+        <v>46.53</v>
+      </c>
+      <c r="AS35">
+        <v>152.65</v>
+      </c>
+      <c r="AT35">
+        <v>0.44</v>
+      </c>
+      <c r="AU35">
+        <v>229.07</v>
+      </c>
+      <c r="AV35">
+        <v>29.54</v>
+      </c>
+      <c r="AW35">
+        <v>44.22</v>
+      </c>
+      <c r="AX35">
+        <v>151.72</v>
+      </c>
+      <c r="AY35">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AZ35">
+        <v>227.97</v>
+      </c>
+      <c r="BA35">
+        <v>31.02</v>
+      </c>
+      <c r="BB35">
+        <v>51.8</v>
+      </c>
+      <c r="BC35">
+        <v>156.56</v>
+      </c>
+      <c r="BD35">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="BE35">
+        <v>241.85</v>
+      </c>
+      <c r="BF35">
+        <v>31.84</v>
+      </c>
+      <c r="BG35">
+        <v>45.83</v>
+      </c>
+      <c r="BH35">
+        <v>172.38</v>
+      </c>
+      <c r="BI35">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BJ35">
+        <v>250.63000000000002</v>
+      </c>
+      <c r="BK35">
+        <v>34.44</v>
+      </c>
+      <c r="BL35">
+        <v>48.6</v>
+      </c>
+      <c r="BM35">
+        <v>167.56</v>
+      </c>
+      <c r="BN35">
+        <v>0.86</v>
+      </c>
+      <c r="BO35">
+        <v>251.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>180.31999999999996</v>
+      </c>
+      <c r="D36">
+        <v>228.4</v>
+      </c>
+      <c r="E36">
+        <v>72.16</v>
+      </c>
+      <c r="F36">
+        <v>1.52</v>
+      </c>
+      <c r="G36">
+        <v>482.40000000000003</v>
+      </c>
+      <c r="H36">
+        <v>26.79</v>
+      </c>
+      <c r="I36">
+        <v>31.56</v>
+      </c>
+      <c r="J36">
+        <v>6.15</v>
+      </c>
+      <c r="K36">
+        <v>0.05</v>
+      </c>
+      <c r="L36">
+        <v>64.55</v>
+      </c>
+      <c r="M36">
+        <v>13.54</v>
+      </c>
+      <c r="N36">
+        <v>17.7</v>
+      </c>
+      <c r="O36">
+        <v>5.28</v>
+      </c>
+      <c r="P36">
+        <v>0.05</v>
+      </c>
+      <c r="Q36">
+        <v>36.569999999999993</v>
+      </c>
+      <c r="R36">
+        <v>12.05</v>
+      </c>
+      <c r="S36">
+        <v>14.05</v>
+      </c>
+      <c r="T36">
+        <v>4.75</v>
+      </c>
+      <c r="U36">
+        <v>0.09</v>
+      </c>
+      <c r="V36">
+        <v>30.94</v>
+      </c>
+      <c r="W36">
+        <v>15.83</v>
+      </c>
+      <c r="X36">
+        <v>18.79</v>
+      </c>
+      <c r="Y36">
+        <v>4.5</v>
+      </c>
+      <c r="Z36">
+        <v>0.12</v>
+      </c>
+      <c r="AA36">
+        <v>39.239999999999995</v>
+      </c>
+      <c r="AB36">
+        <v>9.6</v>
+      </c>
+      <c r="AC36">
+        <v>13.27</v>
+      </c>
+      <c r="AD36">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AE36">
+        <v>0.04</v>
+      </c>
+      <c r="AF36">
+        <v>27.309999999999995</v>
+      </c>
+      <c r="AG36">
+        <v>10.75</v>
+      </c>
+      <c r="AH36">
+        <v>14.18</v>
+      </c>
+      <c r="AI36">
+        <v>3.66</v>
+      </c>
+      <c r="AJ36">
+        <v>0.08</v>
+      </c>
+      <c r="AK36">
+        <v>28.669999999999998</v>
+      </c>
+      <c r="AL36">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="AM36">
+        <v>13.67</v>
+      </c>
+      <c r="AN36">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AO36">
+        <v>0.05</v>
+      </c>
+      <c r="AP36">
+        <v>27.81</v>
+      </c>
+      <c r="AQ36">
+        <v>11.55</v>
+      </c>
+      <c r="AR36">
+        <v>16.57</v>
+      </c>
+      <c r="AS36">
+        <v>3.86</v>
+      </c>
+      <c r="AT36">
+        <v>0.09</v>
+      </c>
+      <c r="AU36">
+        <v>32.07</v>
+      </c>
+      <c r="AV36">
+        <v>18</v>
+      </c>
+      <c r="AW36">
+        <v>23.8</v>
+      </c>
+      <c r="AX36">
+        <v>6.36</v>
+      </c>
+      <c r="AY36">
+        <v>0.46</v>
+      </c>
+      <c r="AZ36">
+        <v>48.62</v>
+      </c>
+      <c r="BA36">
+        <v>17.72</v>
+      </c>
+      <c r="BB36">
+        <v>21.57</v>
+      </c>
+      <c r="BC36">
+        <v>4.13</v>
+      </c>
+      <c r="BD36">
+        <v>0.06</v>
+      </c>
+      <c r="BE36">
+        <v>43.480000000000004</v>
+      </c>
+      <c r="BF36">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="BG36">
+        <v>22.74</v>
+      </c>
+      <c r="BH36">
+        <v>10.3</v>
+      </c>
+      <c r="BI36">
+        <v>0.23</v>
+      </c>
+      <c r="BJ36">
+        <v>51.689999999999991</v>
+      </c>
+      <c r="BK36">
+        <v>16.04</v>
+      </c>
+      <c r="BL36">
+        <v>20.5</v>
+      </c>
+      <c r="BM36">
+        <v>14.71</v>
+      </c>
+      <c r="BN36">
+        <v>0.2</v>
+      </c>
+      <c r="BO36">
+        <v>51.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>16892.509999999998</v>
+      </c>
+      <c r="D37">
+        <v>21292.050000000003</v>
+      </c>
+      <c r="E37">
+        <v>18453.569999999996</v>
+      </c>
+      <c r="F37">
+        <v>6348.5</v>
+      </c>
+      <c r="G37">
+        <v>62986.63</v>
+      </c>
+      <c r="H37">
+        <v>1720.73</v>
+      </c>
+      <c r="I37">
+        <v>2062.94</v>
+      </c>
+      <c r="J37">
+        <v>1890.34</v>
+      </c>
+      <c r="K37">
+        <v>561.88</v>
+      </c>
+      <c r="L37">
+        <v>6235.89</v>
+      </c>
+      <c r="M37">
+        <v>1266.21</v>
+      </c>
+      <c r="N37">
+        <v>1635.88</v>
+      </c>
+      <c r="O37">
+        <v>1550.39</v>
+      </c>
+      <c r="P37">
+        <v>533.67999999999995</v>
+      </c>
+      <c r="Q37">
+        <v>4986.1600000000008</v>
+      </c>
+      <c r="R37">
+        <v>1216.6099999999999</v>
+      </c>
+      <c r="S37">
+        <v>1567.93</v>
+      </c>
+      <c r="T37">
+        <v>1381.23</v>
+      </c>
+      <c r="U37">
+        <v>550.46</v>
+      </c>
+      <c r="V37">
+        <v>4716.2300000000005</v>
+      </c>
+      <c r="W37">
+        <v>1290.9000000000001</v>
+      </c>
+      <c r="X37">
+        <v>1625.38</v>
+      </c>
+      <c r="Y37">
+        <v>1484.03</v>
+      </c>
+      <c r="Z37">
+        <v>539.42999999999995</v>
+      </c>
+      <c r="AA37">
+        <v>4939.7400000000007</v>
+      </c>
+      <c r="AB37">
+        <v>1238.6199999999999</v>
+      </c>
+      <c r="AC37">
+        <v>1544.62</v>
+      </c>
+      <c r="AD37">
+        <v>1365.9</v>
+      </c>
+      <c r="AE37">
+        <v>419.45</v>
+      </c>
+      <c r="AF37">
+        <v>4568.5899999999992</v>
+      </c>
+      <c r="AG37">
+        <v>1364.87</v>
+      </c>
+      <c r="AH37">
+        <v>1961.32</v>
+      </c>
+      <c r="AI37">
+        <v>1398.39</v>
+      </c>
+      <c r="AJ37">
+        <v>542.12</v>
+      </c>
+      <c r="AK37">
+        <v>5266.7</v>
+      </c>
+      <c r="AL37">
+        <v>1483.27</v>
+      </c>
+      <c r="AM37">
+        <v>1690.98</v>
+      </c>
+      <c r="AN37">
+        <v>1568.87</v>
+      </c>
+      <c r="AO37">
+        <v>467.54</v>
+      </c>
+      <c r="AP37">
+        <v>5210.66</v>
+      </c>
+      <c r="AQ37">
+        <v>1373.93</v>
+      </c>
+      <c r="AR37">
+        <v>1769.45</v>
+      </c>
+      <c r="AS37">
+        <v>1521.15</v>
+      </c>
+      <c r="AT37">
+        <v>476.65</v>
+      </c>
+      <c r="AU37">
+        <v>5141.18</v>
+      </c>
+      <c r="AV37">
+        <v>1442.23</v>
+      </c>
+      <c r="AW37">
+        <v>1816.51</v>
+      </c>
+      <c r="AX37">
+        <v>1422.47</v>
+      </c>
+      <c r="AY37">
+        <v>542.41999999999996</v>
+      </c>
+      <c r="AZ37">
+        <v>5223.63</v>
+      </c>
+      <c r="BA37">
+        <v>1613.75</v>
+      </c>
+      <c r="BB37">
+        <v>2047.4</v>
+      </c>
+      <c r="BC37">
+        <v>1754.28</v>
+      </c>
+      <c r="BD37">
+        <v>601.35</v>
+      </c>
+      <c r="BE37">
+        <v>6016.7800000000007</v>
+      </c>
+      <c r="BF37">
+        <v>1401.63</v>
+      </c>
+      <c r="BG37">
+        <v>1747.72</v>
+      </c>
+      <c r="BH37">
+        <v>1552.22</v>
+      </c>
+      <c r="BI37">
+        <v>578.47</v>
+      </c>
+      <c r="BJ37">
+        <v>5280.0400000000009</v>
+      </c>
+      <c r="BK37">
+        <v>1479.76</v>
+      </c>
+      <c r="BL37">
+        <v>1821.92</v>
+      </c>
+      <c r="BM37">
+        <v>1564.3</v>
+      </c>
+      <c r="BN37">
+        <v>535.04999999999995</v>
+      </c>
+      <c r="BO37">
+        <v>5401.0300000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>11200.650000000001</v>
+      </c>
+      <c r="D38">
+        <v>14487.93</v>
+      </c>
+      <c r="E38">
+        <v>16292.759999999998</v>
+      </c>
+      <c r="F38">
+        <v>2843.17</v>
+      </c>
+      <c r="G38">
+        <v>44824.509999999995</v>
+      </c>
+      <c r="H38">
+        <v>1290.8399999999999</v>
+      </c>
+      <c r="I38">
+        <v>1621.08</v>
+      </c>
+      <c r="J38">
+        <v>1639.61</v>
+      </c>
+      <c r="K38">
+        <v>297.99</v>
+      </c>
+      <c r="L38">
+        <v>4849.5199999999995</v>
+      </c>
+      <c r="M38">
+        <v>980.51</v>
+      </c>
+      <c r="N38">
+        <v>1240.0999999999999</v>
+      </c>
+      <c r="O38">
+        <v>1410.08</v>
+      </c>
+      <c r="P38">
+        <v>259.77999999999997</v>
+      </c>
+      <c r="Q38">
+        <v>3890.4699999999993</v>
+      </c>
+      <c r="R38">
+        <v>894.95</v>
+      </c>
+      <c r="S38">
+        <v>1150.42</v>
+      </c>
+      <c r="T38">
+        <v>1352.66</v>
+      </c>
+      <c r="U38">
+        <v>252.78</v>
+      </c>
+      <c r="V38">
+        <v>3650.8100000000004</v>
+      </c>
+      <c r="W38">
+        <v>839.82</v>
+      </c>
+      <c r="X38">
+        <v>1074.17</v>
+      </c>
+      <c r="Y38">
+        <v>1195.83</v>
+      </c>
+      <c r="Z38">
+        <v>236.32</v>
+      </c>
+      <c r="AA38">
+        <v>3346.1400000000003</v>
+      </c>
+      <c r="AB38">
+        <v>827.59</v>
+      </c>
+      <c r="AC38">
+        <v>1061.17</v>
+      </c>
+      <c r="AD38">
+        <v>1195.7</v>
+      </c>
+      <c r="AE38">
+        <v>213.62</v>
+      </c>
+      <c r="AF38">
+        <v>3298.08</v>
+      </c>
+      <c r="AG38">
+        <v>857.21</v>
+      </c>
+      <c r="AH38">
+        <v>1094.17</v>
+      </c>
+      <c r="AI38">
+        <v>1302.33</v>
+      </c>
+      <c r="AJ38">
+        <v>252.75</v>
+      </c>
+      <c r="AK38">
+        <v>3506.46</v>
+      </c>
+      <c r="AL38">
+        <v>909.24</v>
+      </c>
+      <c r="AM38">
+        <v>1174.46</v>
+      </c>
+      <c r="AN38">
+        <v>1489.98</v>
+      </c>
+      <c r="AO38">
+        <v>241.36</v>
+      </c>
+      <c r="AP38">
+        <v>3815.04</v>
+      </c>
+      <c r="AQ38">
+        <v>879.67</v>
+      </c>
+      <c r="AR38">
+        <v>1197.47</v>
+      </c>
+      <c r="AS38">
+        <v>1346.1</v>
+      </c>
+      <c r="AT38">
+        <v>276.18</v>
+      </c>
+      <c r="AU38">
+        <v>3699.4199999999996</v>
+      </c>
+      <c r="AV38">
+        <v>849.12</v>
+      </c>
+      <c r="AW38">
+        <v>1076</v>
+      </c>
+      <c r="AX38">
+        <v>1181.9000000000001</v>
+      </c>
+      <c r="AY38">
+        <v>208.04</v>
+      </c>
+      <c r="AZ38">
+        <v>3315.06</v>
+      </c>
+      <c r="BA38">
+        <v>919.18</v>
+      </c>
+      <c r="BB38">
+        <v>1184.57</v>
+      </c>
+      <c r="BC38">
+        <v>1378.31</v>
+      </c>
+      <c r="BD38">
+        <v>121.45</v>
+      </c>
+      <c r="BE38">
+        <v>3603.5099999999998</v>
+      </c>
+      <c r="BF38">
+        <v>967.45</v>
+      </c>
+      <c r="BG38">
+        <v>1214.8599999999999</v>
+      </c>
+      <c r="BH38">
+        <v>1387.05</v>
+      </c>
+      <c r="BI38">
+        <v>247.39</v>
+      </c>
+      <c r="BJ38">
+        <v>3816.7499999999995</v>
+      </c>
+      <c r="BK38">
+        <v>985.07</v>
+      </c>
+      <c r="BL38">
+        <v>1399.46</v>
+      </c>
+      <c r="BM38">
+        <v>1413.21</v>
+      </c>
+      <c r="BN38">
+        <v>235.51</v>
+      </c>
+      <c r="BO38">
+        <v>4033.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>211.48000000000002</v>
+      </c>
+      <c r="D39">
+        <v>275.63000000000005</v>
+      </c>
+      <c r="E39">
+        <v>56.129999999999995</v>
+      </c>
+      <c r="F39">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G39">
+        <v>545.56000000000006</v>
+      </c>
+      <c r="H39">
+        <v>29.57</v>
+      </c>
+      <c r="I39">
+        <v>35.92</v>
+      </c>
+      <c r="J39">
+        <v>3.97</v>
+      </c>
+      <c r="K39">
+        <v>0.05</v>
+      </c>
+      <c r="L39">
+        <v>69.510000000000005</v>
+      </c>
+      <c r="M39">
+        <v>5.93</v>
+      </c>
+      <c r="N39">
+        <v>7.79</v>
+      </c>
+      <c r="O39">
+        <v>1.77</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>15.489999999999998</v>
+      </c>
+      <c r="R39">
+        <v>7.41</v>
+      </c>
+      <c r="S39">
+        <v>11.54</v>
+      </c>
+      <c r="T39">
+        <v>3.31</v>
+      </c>
+      <c r="U39">
+        <v>0.67</v>
+      </c>
+      <c r="V39">
+        <v>22.93</v>
+      </c>
+      <c r="W39">
+        <v>14.21</v>
+      </c>
+      <c r="X39">
+        <v>19.21</v>
+      </c>
+      <c r="Y39">
+        <v>4.16</v>
+      </c>
+      <c r="Z39">
+        <v>0.1</v>
+      </c>
+      <c r="AA39">
+        <v>37.68</v>
+      </c>
+      <c r="AB39">
+        <v>12.49</v>
+      </c>
+      <c r="AC39">
+        <v>15.35</v>
+      </c>
+      <c r="AD39">
+        <v>4.83</v>
+      </c>
+      <c r="AE39">
+        <v>0.25</v>
+      </c>
+      <c r="AF39">
+        <v>32.92</v>
+      </c>
+      <c r="AG39">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="AH39">
+        <v>21.46</v>
+      </c>
+      <c r="AI39">
+        <v>4.25</v>
+      </c>
+      <c r="AJ39">
+        <v>0.02</v>
+      </c>
+      <c r="AK39">
+        <v>43.54</v>
+      </c>
+      <c r="AL39">
+        <v>20.79</v>
+      </c>
+      <c r="AM39">
+        <v>30.77</v>
+      </c>
+      <c r="AN39">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="AO39">
+        <v>0.18</v>
+      </c>
+      <c r="AP39">
+        <v>56.35</v>
+      </c>
+      <c r="AQ39">
+        <v>25.48</v>
+      </c>
+      <c r="AR39">
+        <v>34.11</v>
+      </c>
+      <c r="AS39">
+        <v>6.76</v>
+      </c>
+      <c r="AT39">
+        <v>0.38</v>
+      </c>
+      <c r="AU39">
+        <v>66.73</v>
+      </c>
+      <c r="AV39">
+        <v>25.66</v>
+      </c>
+      <c r="AW39">
+        <v>32.85</v>
+      </c>
+      <c r="AX39">
+        <v>6.16</v>
+      </c>
+      <c r="AY39">
+        <v>0.21</v>
+      </c>
+      <c r="AZ39">
+        <v>64.88</v>
+      </c>
+      <c r="BA39">
+        <v>25.3</v>
+      </c>
+      <c r="BB39">
+        <v>35.15</v>
+      </c>
+      <c r="BC39">
+        <v>7.63</v>
+      </c>
+      <c r="BD39">
+        <v>0.18</v>
+      </c>
+      <c r="BE39">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="BF39">
+        <v>6.96</v>
+      </c>
+      <c r="BG39">
+        <v>9.69</v>
+      </c>
+      <c r="BH39">
+        <v>2.11</v>
+      </c>
+      <c r="BI39">
+        <v>0.05</v>
+      </c>
+      <c r="BJ39">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="BK39">
+        <v>19.87</v>
+      </c>
+      <c r="BL39">
+        <v>21.79</v>
+      </c>
+      <c r="BM39">
+        <v>6.57</v>
+      </c>
+      <c r="BN39">
+        <v>0.23</v>
+      </c>
+      <c r="BO39">
+        <v>48.459999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>178.79999999999995</v>
+      </c>
+      <c r="D40">
+        <v>207.73000000000002</v>
+      </c>
+      <c r="E40">
+        <v>2086.34</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2472.87</v>
+      </c>
+      <c r="H40">
+        <v>11.63</v>
+      </c>
+      <c r="I40">
+        <v>16.03</v>
+      </c>
+      <c r="J40">
+        <v>196.97</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>224.63</v>
+      </c>
+      <c r="M40">
+        <v>14.64</v>
+      </c>
+      <c r="N40">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="O40">
+        <v>175.62</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>207.41</v>
+      </c>
+      <c r="R40">
+        <v>12.59</v>
+      </c>
+      <c r="S40">
+        <v>14.77</v>
+      </c>
+      <c r="T40">
+        <v>179.45</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>206.81</v>
+      </c>
+      <c r="W40">
+        <v>12.27</v>
+      </c>
+      <c r="X40">
+        <v>14.52</v>
+      </c>
+      <c r="Y40">
+        <v>193.65</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>220.44</v>
+      </c>
+      <c r="AB40">
+        <v>15.6</v>
+      </c>
+      <c r="AC40">
+        <v>17.93</v>
+      </c>
+      <c r="AD40">
+        <v>165.43</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>198.96</v>
+      </c>
+      <c r="AG40">
+        <v>15.07</v>
+      </c>
+      <c r="AH40">
+        <v>17.75</v>
+      </c>
+      <c r="AI40">
+        <v>190.5</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>223.32</v>
+      </c>
+      <c r="AL40">
+        <v>12.6</v>
+      </c>
+      <c r="AM40">
+        <v>13.5</v>
+      </c>
+      <c r="AN40">
+        <v>164.49</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>190.59</v>
+      </c>
+      <c r="AQ40">
+        <v>11.07</v>
+      </c>
+      <c r="AR40">
+        <v>13.45</v>
+      </c>
+      <c r="AS40">
+        <v>147.82</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>172.34</v>
+      </c>
+      <c r="AV40">
+        <v>14.74</v>
+      </c>
+      <c r="AW40">
+        <v>15.71</v>
+      </c>
+      <c r="AX40">
+        <v>165.51</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>195.95999999999998</v>
+      </c>
+      <c r="BA40">
+        <v>18.43</v>
+      </c>
+      <c r="BB40">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="BC40">
+        <v>158.62</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>197.11</v>
+      </c>
+      <c r="BF40">
+        <v>22.15</v>
+      </c>
+      <c r="BG40">
+        <v>26.06</v>
+      </c>
+      <c r="BH40">
+        <v>166.23</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>214.44</v>
+      </c>
+      <c r="BK40">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="BL40">
+        <v>20.8</v>
+      </c>
+      <c r="BM40">
+        <v>182.05</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>220.86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>3274.67</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>3274.67</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>221.06</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>221.06</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>244.59</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>244.59</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>249.19</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>249.19</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>237.81</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>237.81</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>287.52999999999997</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>287.52999999999997</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>261.3</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>261.3</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>265.98</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>265.98</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>286.39</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>286.39</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>308.42</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>308.42</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>284.23</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>284.23</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>336.34</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>336.34</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>291.83</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>291.83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42">
+        <v>413775.76</v>
+      </c>
+      <c r="D42">
+        <v>516447.52999999997</v>
+      </c>
+      <c r="E42">
+        <v>603581.54</v>
+      </c>
+      <c r="F42">
+        <v>141891.71999999997</v>
+      </c>
+      <c r="G42">
+        <v>1675696.5499999998</v>
+      </c>
+      <c r="H42">
+        <v>43845.520000000004</v>
+      </c>
+      <c r="I42">
+        <v>53538.310000000005</v>
+      </c>
+      <c r="J42">
+        <v>61796.7</v>
+      </c>
+      <c r="K42">
+        <v>12252.039999999994</v>
+      </c>
+      <c r="L42">
+        <v>171432.56999999995</v>
+      </c>
+      <c r="M42">
+        <v>32409.039999999997</v>
+      </c>
+      <c r="N42">
+        <v>40265.360000000001</v>
+      </c>
+      <c r="O42">
+        <v>47901.709999999992</v>
+      </c>
+      <c r="P42">
+        <v>11207.210000000001</v>
+      </c>
+      <c r="Q42">
+        <v>131783.32000000004</v>
+      </c>
+      <c r="R42">
+        <v>32627.160000000003</v>
+      </c>
+      <c r="S42">
+        <v>40714.729999999981</v>
+      </c>
+      <c r="T42">
+        <v>47269.89</v>
+      </c>
+      <c r="U42">
+        <v>12188.300000000003</v>
+      </c>
+      <c r="V42">
+        <v>132800.07999999999</v>
+      </c>
+      <c r="W42">
+        <v>32386.310000000005</v>
+      </c>
+      <c r="X42">
+        <v>40289.389999999985</v>
+      </c>
+      <c r="Y42">
+        <v>49437.260000000017</v>
+      </c>
+      <c r="Z42">
+        <v>11923.369999999999</v>
+      </c>
+      <c r="AA42">
+        <v>134036.32999999999</v>
+      </c>
+      <c r="AB42">
+        <v>30862.02</v>
+      </c>
+      <c r="AC42">
+        <v>38410.849999999991</v>
+      </c>
+      <c r="AD42">
+        <v>44592.94</v>
+      </c>
+      <c r="AE42">
+        <v>11119.650000000001</v>
+      </c>
+      <c r="AF42">
+        <v>124985.46000000004</v>
+      </c>
+      <c r="AG42">
+        <v>31421.52</v>
+      </c>
+      <c r="AH42">
+        <v>39282.929999999993</v>
+      </c>
+      <c r="AI42">
+        <v>46086.73000000001</v>
+      </c>
+      <c r="AJ42">
+        <v>11058.65</v>
+      </c>
+      <c r="AK42">
+        <v>127849.83</v>
+      </c>
+      <c r="AL42">
+        <v>33821.139999999992</v>
+      </c>
+      <c r="AM42">
+        <v>41863.569999999992</v>
+      </c>
+      <c r="AN42">
+        <v>54878.150000000016</v>
+      </c>
+      <c r="AO42">
+        <v>11687.82</v>
+      </c>
+      <c r="AP42">
+        <v>142250.68000000002</v>
+      </c>
+      <c r="AQ42">
+        <v>34140.959999999999</v>
+      </c>
+      <c r="AR42">
+        <v>43046.849999999991</v>
+      </c>
+      <c r="AS42">
+        <v>50092.719999999994</v>
+      </c>
+      <c r="AT42">
+        <v>12397.630000000001</v>
+      </c>
+      <c r="AU42">
+        <v>139678.16000000003</v>
+      </c>
+      <c r="AV42">
+        <v>32836.230000000003</v>
+      </c>
+      <c r="AW42">
+        <v>40498.94000000001</v>
+      </c>
+      <c r="AX42">
+        <v>47782.970000000008</v>
+      </c>
+      <c r="AY42">
+        <v>11470.8</v>
+      </c>
+      <c r="AZ42">
+        <v>132588.94</v>
+      </c>
+      <c r="BA42">
+        <v>36076.960000000006</v>
+      </c>
+      <c r="BB42">
+        <v>44941.75</v>
+      </c>
+      <c r="BC42">
+        <v>53622.65</v>
+      </c>
+      <c r="BD42">
+        <v>12482.920000000002</v>
+      </c>
+      <c r="BE42">
+        <v>147124.28000000006</v>
+      </c>
+      <c r="BF42">
+        <v>35204.399999999994</v>
+      </c>
+      <c r="BG42">
+        <v>43704.049999999996</v>
+      </c>
+      <c r="BH42">
+        <v>50048.810000000012</v>
+      </c>
+      <c r="BI42">
+        <v>12987.459999999997</v>
+      </c>
+      <c r="BJ42">
+        <v>141944.72000000003</v>
+      </c>
+      <c r="BK42">
+        <v>38144.5</v>
+      </c>
+      <c r="BL42">
+        <v>49890.799999999996</v>
+      </c>
+      <c r="BM42">
+        <v>50071.010000000009</v>
+      </c>
+      <c r="BN42">
+        <v>11115.87</v>
+      </c>
+      <c r="BO42">
+        <v>149222.18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>521753.55657302501</v>
+      </c>
+      <c r="F44">
+        <v>11410.886291299999</v>
+      </c>
+      <c r="G44">
+        <v>533164.44286432501</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>37826.495320649999</v>
+      </c>
+      <c r="K44">
+        <v>1008.0192646999999</v>
+      </c>
+      <c r="L44">
+        <v>38834.51458535</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>39879.255612100002</v>
+      </c>
+      <c r="P44">
+        <v>1076.3199233999999</v>
+      </c>
+      <c r="Q44">
+        <v>40955.5755355</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>40040.362749100001</v>
+      </c>
+      <c r="U44">
+        <v>972.02288930000009</v>
+      </c>
+      <c r="V44">
+        <v>41012.385638400003</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>47009.381365500005</v>
+      </c>
+      <c r="Z44">
+        <v>1029.4991095999999</v>
+      </c>
+      <c r="AA44">
+        <v>48038.880475100006</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>49027.8316844</v>
+      </c>
+      <c r="AE44">
+        <v>948.26974680000001</v>
+      </c>
+      <c r="AF44">
+        <v>49976.101431199997</v>
+      </c>
+      <c r="AI44">
+        <v>44507.436867799996</v>
+      </c>
+      <c r="AJ44">
+        <v>882.79048720000003</v>
+      </c>
+      <c r="AK44">
+        <v>45390.227354999995</v>
+      </c>
+      <c r="AN44">
+        <v>44233.298748000001</v>
+      </c>
+      <c r="AO44">
+        <v>862.49733130000004</v>
+      </c>
+      <c r="AP44">
+        <v>45095.796079300002</v>
+      </c>
+      <c r="AS44">
+        <v>41735.526430950005</v>
+      </c>
+      <c r="AT44">
+        <v>855.34260119999999</v>
+      </c>
+      <c r="AU44">
+        <v>42590.869032150003</v>
+      </c>
+      <c r="AX44">
+        <v>43437.619071995003</v>
+      </c>
+      <c r="AY44">
+        <v>830.03585939999994</v>
+      </c>
+      <c r="AZ44">
+        <v>44267.654931395002</v>
+      </c>
+      <c r="BC44">
+        <v>47452.661698700002</v>
+      </c>
+      <c r="BD44">
+        <v>929.03909450000003</v>
+      </c>
+      <c r="BE44">
+        <v>48381.700793200005</v>
+      </c>
+      <c r="BH44">
+        <v>40821.371165529999</v>
+      </c>
+      <c r="BI44">
+        <v>880.34540179999999</v>
+      </c>
+      <c r="BJ44">
+        <v>41701.716567329997</v>
+      </c>
+      <c r="BM44">
+        <v>45782.315858300004</v>
+      </c>
+      <c r="BN44">
+        <v>1136.7045820999999</v>
+      </c>
+      <c r="BO44">
+        <v>46919.020440400003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>413775.76</v>
+      </c>
+      <c r="D46">
+        <v>516447.52999999997</v>
+      </c>
+      <c r="E46">
+        <v>1125335.096573025</v>
+      </c>
+      <c r="F46">
+        <v>153302.60629129998</v>
+      </c>
+      <c r="G46">
+        <v>2208860.9928643247</v>
+      </c>
+      <c r="H46">
+        <v>43845.520000000004</v>
+      </c>
+      <c r="I46">
+        <v>53538.310000000005</v>
+      </c>
+      <c r="J46">
+        <v>99623.195320650004</v>
+      </c>
+      <c r="K46">
+        <v>13260.059264699994</v>
+      </c>
+      <c r="L46">
+        <v>210267.08458534995</v>
+      </c>
+      <c r="M46">
+        <v>32409.039999999997</v>
+      </c>
+      <c r="N46">
+        <v>40265.360000000001</v>
+      </c>
+      <c r="O46">
+        <v>87780.965612100001</v>
+      </c>
+      <c r="P46">
+        <v>12283.529923400001</v>
+      </c>
+      <c r="Q46">
+        <v>172738.89553550002</v>
+      </c>
+      <c r="R46">
+        <v>32627.160000000003</v>
+      </c>
+      <c r="S46">
+        <v>40714.729999999981</v>
+      </c>
+      <c r="T46">
+        <v>87310.252749100007</v>
+      </c>
+      <c r="U46">
+        <v>13160.322889300003</v>
+      </c>
+      <c r="V46">
+        <v>173812.4656384</v>
+      </c>
+      <c r="W46">
+        <v>32386.310000000005</v>
+      </c>
+      <c r="X46">
+        <v>40289.389999999985</v>
+      </c>
+      <c r="Y46">
+        <v>96446.641365500021</v>
+      </c>
+      <c r="Z46">
+        <v>12952.869109599998</v>
+      </c>
+      <c r="AA46">
+        <v>182075.2104751</v>
+      </c>
+      <c r="AB46">
+        <v>30862.02</v>
+      </c>
+      <c r="AC46">
+        <v>38410.849999999991</v>
+      </c>
+      <c r="AD46">
+        <v>93620.77168440001</v>
+      </c>
+      <c r="AE46">
+        <v>12067.919746800002</v>
+      </c>
+      <c r="AF46">
+        <v>174961.56143120004</v>
+      </c>
+      <c r="AG46">
+        <v>31421.52</v>
+      </c>
+      <c r="AH46">
+        <v>39282.929999999993</v>
+      </c>
+      <c r="AI46">
+        <v>90594.166867799999</v>
+      </c>
+      <c r="AJ46">
+        <v>11941.4404872</v>
+      </c>
+      <c r="AK46">
+        <v>173240.057355</v>
+      </c>
+      <c r="AL46">
+        <v>33821.139999999992</v>
+      </c>
+      <c r="AM46">
+        <v>41863.569999999992</v>
+      </c>
+      <c r="AN46">
+        <v>99111.448748000024</v>
+      </c>
+      <c r="AO46">
+        <v>12550.317331300001</v>
+      </c>
+      <c r="AP46">
+        <v>187346.47607930002</v>
+      </c>
+      <c r="AQ46">
+        <v>34140.959999999999</v>
+      </c>
+      <c r="AR46">
+        <v>43046.849999999991</v>
+      </c>
+      <c r="AS46">
+        <v>91828.246430950006</v>
+      </c>
+      <c r="AT46">
+        <v>13252.972601200001</v>
+      </c>
+      <c r="AU46">
+        <v>182269.02903215005</v>
+      </c>
+      <c r="AV46">
+        <v>32836.230000000003</v>
+      </c>
+      <c r="AW46">
+        <v>40498.94000000001</v>
+      </c>
+      <c r="AX46">
+        <v>91220.589071995011</v>
+      </c>
+      <c r="AY46">
+        <v>12300.835859399998</v>
+      </c>
+      <c r="AZ46">
+        <v>176856.594931395</v>
+      </c>
+      <c r="BA46">
+        <v>36076.960000000006</v>
+      </c>
+      <c r="BB46">
+        <v>44941.75</v>
+      </c>
+      <c r="BC46">
+        <v>101075.31169870001</v>
+      </c>
+      <c r="BD46">
+        <v>13411.959094500002</v>
+      </c>
+      <c r="BE46">
+        <v>195505.98079320005</v>
+      </c>
+      <c r="BF46">
+        <v>35204.399999999994</v>
+      </c>
+      <c r="BG46">
+        <v>43704.049999999996</v>
+      </c>
+      <c r="BH46">
+        <v>90870.181165530012</v>
+      </c>
+      <c r="BI46">
+        <v>13867.805401799997</v>
+      </c>
+      <c r="BJ46">
+        <v>183646.43656733003</v>
+      </c>
+      <c r="BK46">
+        <v>38144.5</v>
+      </c>
+      <c r="BL46">
+        <v>49890.799999999996</v>
+      </c>
+      <c r="BM46">
+        <v>95853.325858300013</v>
+      </c>
+      <c r="BN46">
+        <v>12252.5745821</v>
+      </c>
+      <c r="BO46">
+        <v>196141.20044039999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO54"/>
   <sheetViews>
@@ -3486,7 +12250,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BO54" sqref="BO54"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3548,11 +12312,11 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="str">
+      <c r="A2" s="81" t="str">
         <f>'GST_Revenue-All_India'!A3</f>
         <v>Data upto : 31st Mar 2025</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="81"/>
     </row>
     <row r="3" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
@@ -3565,115 +12329,115 @@
       <c r="BK3" s="53"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="69" t="str">
+      <c r="C5" s="70" t="str">
         <f>'GST_Revenue-All_India'!B7</f>
         <v>Financial Year (up to the Month - Mar 2025)</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73">
         <v>45383</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="72">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="73">
         <v>45413</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="67">
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="68">
         <v>45444</v>
       </c>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67">
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68">
         <v>45474</v>
       </c>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67">
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68">
         <v>45505</v>
       </c>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67">
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68">
         <v>45536</v>
       </c>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67">
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68">
         <v>45566</v>
       </c>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67">
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68">
         <v>45597</v>
       </c>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67"/>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="67">
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="68"/>
+      <c r="AV5" s="68">
         <v>45627</v>
       </c>
-      <c r="AW5" s="67"/>
-      <c r="AX5" s="67"/>
-      <c r="AY5" s="67"/>
-      <c r="AZ5" s="67"/>
-      <c r="BA5" s="67">
+      <c r="AW5" s="68"/>
+      <c r="AX5" s="68"/>
+      <c r="AY5" s="68"/>
+      <c r="AZ5" s="68"/>
+      <c r="BA5" s="68">
         <v>45658</v>
       </c>
-      <c r="BB5" s="67"/>
-      <c r="BC5" s="67"/>
-      <c r="BD5" s="67"/>
-      <c r="BE5" s="67"/>
-      <c r="BF5" s="67">
+      <c r="BB5" s="68"/>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="68">
         <v>45689</v>
       </c>
-      <c r="BG5" s="67"/>
-      <c r="BH5" s="67"/>
-      <c r="BI5" s="67"/>
-      <c r="BJ5" s="67"/>
-      <c r="BK5" s="67">
+      <c r="BG5" s="68"/>
+      <c r="BH5" s="68"/>
+      <c r="BI5" s="68"/>
+      <c r="BJ5" s="68"/>
+      <c r="BK5" s="68">
         <v>45717</v>
       </c>
-      <c r="BL5" s="67"/>
-      <c r="BM5" s="67"/>
-      <c r="BN5" s="67"/>
-      <c r="BO5" s="67"/>
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68"/>
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="68"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
@@ -12451,10 +21215,10 @@
       </c>
     </row>
     <row r="46" spans="1:67" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="80"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="24">
         <f t="shared" ref="C46:F46" si="18">SUM(C7:C45)</f>
         <v>413775.76</v>
@@ -12784,10 +21548,10 @@
       <c r="BO47" s="17"/>
     </row>
     <row r="48" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="79"/>
+      <c r="B48" s="78"/>
       <c r="C48" s="32">
         <f t="shared" ref="C48" si="30">H48+M48+R48+W48+AB48+AG48+AL48+AQ48+AV48+BA48+BF48+BK48</f>
         <v>0</v>
@@ -13041,10 +21805,10 @@
       <c r="BO49" s="17"/>
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="78"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="18">
         <f>C48+C46</f>
         <v>413775.76</v>
@@ -13403,12 +22167,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BK5:BO5"/>
-    <mergeCell ref="BF5:BJ5"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="R5:V5"/>
     <mergeCell ref="A48:B48"/>
@@ -13418,18 +22181,19 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="M5:Q5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="BK5:BO5"/>
+    <mergeCell ref="BF5:BJ5"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="BA5:BE5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCE9605-A3A5-D64D-A077-668254326699}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13480,30 +22244,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="str">
+      <c r="A2" s="84" t="str">
         <f>'GST_Revenue-All_India'!A3</f>
         <v>Data upto : 31st Mar 2025</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
     </row>
     <row r="3" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="34" t="s">
@@ -13516,118 +22280,118 @@
       <c r="BK3" s="53"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.3">
       <c r="C5" s="34"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="str">
+      <c r="C7" s="90" t="str">
         <f>'GST_Revenue-All_India'!B7</f>
         <v>Financial Year (up to the Month - Mar 2025)</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="72">
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="73">
         <v>45383</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="67">
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="68">
         <v>45413</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67">
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68">
         <v>45444</v>
       </c>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67">
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68">
         <v>45474</v>
       </c>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67">
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68">
         <v>45505</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67">
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68">
         <v>45536</v>
       </c>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67">
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68">
         <v>45566</v>
       </c>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67">
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68">
         <v>45597</v>
       </c>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67">
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68">
         <v>45627</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67">
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68">
         <v>45658</v>
       </c>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67">
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="68">
         <v>45689</v>
       </c>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67">
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="68"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68">
         <v>45717</v>
       </c>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="68"/>
+      <c r="BO7" s="68"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="36" t="s">
         <v>2</v>
       </c>
@@ -22177,10 +30941,10 @@
       </c>
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="86"/>
+      <c r="B47" s="87"/>
       <c r="C47" s="15">
         <f t="shared" ref="C47:AH47" si="25">SUM(C9:C46)</f>
         <v>33677.120000000003</v>
@@ -22510,10 +31274,10 @@
       <c r="BO48" s="54"/>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="87"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="58">
         <f>H49+M49+R49+W49+AB49+AG49+AL49+AQ49+AV49+BA49+BF49+BK49</f>
         <v>0</v>
@@ -22797,10 +31561,10 @@
       <c r="BO50" s="54"/>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="85"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="18">
         <f t="shared" ref="C51:AK51" si="31">C49+C47</f>
         <v>33677.120000000003</v>
@@ -23081,6 +31845,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="BF7:BJ7"/>
     <mergeCell ref="BK7:BO7"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:C2"/>
@@ -23097,11 +31866,6 @@
     <mergeCell ref="M7:Q7"/>
     <mergeCell ref="AV7:AZ7"/>
     <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="BF7:BJ7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
